--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8980762145450402</v>
+        <v>0.8980762145450382</v>
       </c>
       <c r="D2">
-        <v>1.002086748373692</v>
+        <v>1.002086748373691</v>
       </c>
       <c r="E2">
-        <v>0.9181542753333165</v>
+        <v>0.9181542753333143</v>
       </c>
       <c r="F2">
-        <v>0.9119369074296083</v>
+        <v>0.9119369074296065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576071708596</v>
+        <v>1.037576071708595</v>
       </c>
       <c r="J2">
-        <v>0.9238004927861563</v>
+        <v>0.9238004927861542</v>
       </c>
       <c r="K2">
-        <v>1.013517087831405</v>
+        <v>1.013517087831404</v>
       </c>
       <c r="L2">
-        <v>0.9308852756527528</v>
+        <v>0.9308852756527507</v>
       </c>
       <c r="M2">
-        <v>0.9247766011151763</v>
+        <v>0.9247766011151748</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9148226566518182</v>
+        <v>0.9148226566518194</v>
       </c>
       <c r="D3">
-        <v>1.01038188277631</v>
+        <v>1.010381882776311</v>
       </c>
       <c r="E3">
-        <v>0.9322312371218443</v>
+        <v>0.9322312371218451</v>
       </c>
       <c r="F3">
-        <v>0.9305394231984022</v>
+        <v>0.9305394231984034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041282904175678</v>
+        <v>1.041282904175679</v>
       </c>
       <c r="J3">
-        <v>0.9379392263150432</v>
+        <v>0.9379392263150443</v>
       </c>
       <c r="K3">
-        <v>1.020883626744037</v>
+        <v>1.020883626744038</v>
       </c>
       <c r="L3">
-        <v>0.9438115299709604</v>
+        <v>0.9438115299709613</v>
       </c>
       <c r="M3">
-        <v>0.9421456193304936</v>
+        <v>0.9421456193304947</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9248529017297101</v>
+        <v>0.9248529017297089</v>
       </c>
       <c r="D4">
         <v>1.015353178663636</v>
       </c>
       <c r="E4">
-        <v>0.9406783422785003</v>
+        <v>0.9406783422784991</v>
       </c>
       <c r="F4">
-        <v>0.9416052810185697</v>
+        <v>0.9416052810185689</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043474619572029</v>
       </c>
       <c r="J4">
-        <v>0.9463959110657076</v>
+        <v>0.9463959110657065</v>
       </c>
       <c r="K4">
         <v>1.025269769586224</v>
       </c>
       <c r="L4">
-        <v>0.9515496939907219</v>
+        <v>0.9515496939907206</v>
       </c>
       <c r="M4">
-        <v>0.9524636098366009</v>
+        <v>0.9524636098366004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9289036623669464</v>
+        <v>0.9289036623669455</v>
       </c>
       <c r="D5">
-        <v>1.017359518377024</v>
+        <v>1.017359518377023</v>
       </c>
       <c r="E5">
-        <v>0.9440929854142176</v>
+        <v>0.944092985414217</v>
       </c>
       <c r="F5">
-        <v>0.9460563672019877</v>
+        <v>0.9460563672019869</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044352088464384</v>
       </c>
       <c r="J5">
-        <v>0.9498082370348498</v>
+        <v>0.9498082370348491</v>
       </c>
       <c r="K5">
-        <v>1.027033385036797</v>
+        <v>1.027033385036796</v>
       </c>
       <c r="L5">
-        <v>0.9546735698841595</v>
+        <v>0.9546735698841587</v>
       </c>
       <c r="M5">
-        <v>0.9566103524795011</v>
+        <v>0.9566103524795003</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9295747348530614</v>
+        <v>0.9295747348530609</v>
       </c>
       <c r="D6">
         <v>1.017691768609883</v>
       </c>
       <c r="E6">
-        <v>0.9446588524650227</v>
+        <v>0.9446588524650221</v>
       </c>
       <c r="F6">
-        <v>0.9467927125536334</v>
+        <v>0.946792712553633</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044496981789899</v>
       </c>
       <c r="J6">
-        <v>0.9503733655850738</v>
+        <v>0.9503733655850731</v>
       </c>
       <c r="K6">
         <v>1.027325060433223</v>
       </c>
       <c r="L6">
-        <v>0.9551910109964875</v>
+        <v>0.9551910109964871</v>
       </c>
       <c r="M6">
-        <v>0.9572961387783097</v>
+        <v>0.957296138778309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9249076494929199</v>
+        <v>0.92490764949292</v>
       </c>
       <c r="D7">
-        <v>1.015380303005517</v>
+        <v>1.015380303005516</v>
       </c>
       <c r="E7">
         <v>0.9407244803331939</v>
       </c>
       <c r="F7">
-        <v>0.9416655104783495</v>
+        <v>0.9416655104783496</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043486510543866</v>
       </c>
       <c r="J7">
-        <v>0.9464420420368809</v>
+        <v>0.9464420420368808</v>
       </c>
       <c r="K7">
         <v>1.025293638340832</v>
       </c>
       <c r="L7">
-        <v>0.9515919196752678</v>
+        <v>0.9515919196752675</v>
       </c>
       <c r="M7">
-        <v>0.9525197353596311</v>
+        <v>0.952519735359631</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,10 +652,10 @@
         <v>0.9039211816340416</v>
       </c>
       <c r="D8">
-        <v>1.004979886942745</v>
+        <v>1.004979886942746</v>
       </c>
       <c r="E8">
-        <v>0.9230637060397271</v>
+        <v>0.9230637060397269</v>
       </c>
       <c r="F8">
         <v>0.9184465297227151</v>
@@ -667,7 +667,7 @@
         <v>1.038875480355407</v>
       </c>
       <c r="J8">
-        <v>0.9287377403238276</v>
+        <v>0.9287377403238278</v>
       </c>
       <c r="K8">
         <v>1.016092822401862</v>
@@ -676,7 +676,7 @@
         <v>0.9353975740236805</v>
       </c>
       <c r="M8">
-        <v>0.9308575728954428</v>
+        <v>0.9308575728954429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8590097261580895</v>
+        <v>0.8590097261580857</v>
       </c>
       <c r="D9">
-        <v>0.9828947549356805</v>
+        <v>0.9828947549356781</v>
       </c>
       <c r="E9">
-        <v>0.885452283024997</v>
+        <v>0.8854522830249939</v>
       </c>
       <c r="F9">
-        <v>0.8680364595472508</v>
+        <v>0.8680364595472462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028806007187015</v>
+        <v>1.028806007187014</v>
       </c>
       <c r="J9">
-        <v>0.8907543888115241</v>
+        <v>0.8907543888115205</v>
       </c>
       <c r="K9">
-        <v>0.9962715862930293</v>
+        <v>0.9962715862930269</v>
       </c>
       <c r="L9">
-        <v>0.9007243743621987</v>
+        <v>0.9007243743621955</v>
       </c>
       <c r="M9">
-        <v>0.8837074148739527</v>
+        <v>0.883707414873948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8195158794822609</v>
+        <v>0.81951587948226</v>
       </c>
       <c r="D10">
-        <v>0.9639441974877324</v>
+        <v>0.9639441974877329</v>
       </c>
       <c r="E10">
-        <v>0.8526098747726513</v>
+        <v>0.8526098747726504</v>
       </c>
       <c r="F10">
-        <v>0.8231099865320344</v>
+        <v>0.8231099865320345</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019938775225419</v>
       </c>
       <c r="J10">
-        <v>0.8573105441716908</v>
+        <v>0.8573105441716901</v>
       </c>
       <c r="K10">
-        <v>0.9789964650314591</v>
+        <v>0.9789964650314594</v>
       </c>
       <c r="L10">
-        <v>0.8702704177668472</v>
+        <v>0.8702704177668461</v>
       </c>
       <c r="M10">
-        <v>0.841625250388977</v>
+        <v>0.8416252503889771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7979790359022453</v>
+        <v>0.7979790359022458</v>
       </c>
       <c r="D11">
-        <v>0.9538840832995876</v>
+        <v>0.9538840832995891</v>
       </c>
       <c r="E11">
-        <v>0.8348038642517621</v>
+        <v>0.8348038642517623</v>
       </c>
       <c r="F11">
-        <v>0.7984356393055974</v>
+        <v>0.7984356393055995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015163224276333</v>
+        <v>1.015163224276334</v>
       </c>
       <c r="J11">
-        <v>0.8390776231662124</v>
+        <v>0.8390776231662126</v>
       </c>
       <c r="K11">
-        <v>0.9697314285500244</v>
+        <v>0.9697314285500258</v>
       </c>
       <c r="L11">
-        <v>0.853696982903959</v>
+        <v>0.8536969829039591</v>
       </c>
       <c r="M11">
-        <v>0.8185135650752492</v>
+        <v>0.8185135650752511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.788872655046043</v>
+        <v>0.7888726550460406</v>
       </c>
       <c r="D12">
-        <v>0.9496992598007538</v>
+        <v>0.9496992598007534</v>
       </c>
       <c r="E12">
-        <v>0.8272989786437168</v>
+        <v>0.8272989786437148</v>
       </c>
       <c r="F12">
-        <v>0.7879720111038295</v>
+        <v>0.7879720111038276</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.013164106547791</v>
       </c>
       <c r="J12">
-        <v>0.8313719442484839</v>
+        <v>0.8313719442484818</v>
       </c>
       <c r="K12">
-        <v>0.9658580457087956</v>
+        <v>0.9658580457087954</v>
       </c>
       <c r="L12">
-        <v>0.8466989960462997</v>
+        <v>0.8466989960462976</v>
       </c>
       <c r="M12">
-        <v>0.8087158942578268</v>
+        <v>0.8087158942578246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908887995157523</v>
+        <v>0.7908887995157515</v>
       </c>
       <c r="D13">
-        <v>0.9506220394079479</v>
+        <v>0.9506220394079471</v>
       </c>
       <c r="E13">
-        <v>0.8289592789650316</v>
+        <v>0.8289592789650313</v>
       </c>
       <c r="F13">
-        <v>0.7902900981128563</v>
+        <v>0.7902900981128556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013605539713514</v>
+        <v>1.013605539713513</v>
       </c>
       <c r="J13">
-        <v>0.8330777296718316</v>
+        <v>0.8330777296718311</v>
       </c>
       <c r="K13">
-        <v>0.9667131341961658</v>
+        <v>0.9667131341961653</v>
       </c>
       <c r="L13">
-        <v>0.8482477927015236</v>
+        <v>0.8482477927015234</v>
       </c>
       <c r="M13">
-        <v>0.8108862133740288</v>
+        <v>0.8108862133740282</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.7972531816708421</v>
       </c>
       <c r="D14">
-        <v>0.9535489473547714</v>
+        <v>0.953548947354772</v>
       </c>
       <c r="E14">
         <v>0.8342051245498626</v>
       </c>
       <c r="F14">
-        <v>0.7976022287541513</v>
+        <v>0.7976022287541519</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015003392976418</v>
       </c>
       <c r="J14">
-        <v>0.8384633174583175</v>
+        <v>0.8384633174583174</v>
       </c>
       <c r="K14">
-        <v>0.9694216543266947</v>
+        <v>0.9694216543266954</v>
       </c>
       <c r="L14">
-        <v>0.8531389556281347</v>
+        <v>0.8531389556281346</v>
       </c>
       <c r="M14">
-        <v>0.8177331038749019</v>
+        <v>0.8177331038749024</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8010067974545533</v>
+        <v>0.8010067974545538</v>
       </c>
       <c r="D15">
-        <v>0.9552849038075817</v>
+        <v>0.9552849038075829</v>
       </c>
       <c r="E15">
-        <v>0.8373023814819204</v>
+        <v>0.8373023814819208</v>
       </c>
       <c r="F15">
-        <v>0.8019108394814553</v>
+        <v>0.8019108394814574</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01583078996573</v>
       </c>
       <c r="J15">
-        <v>0.8416402481487733</v>
+        <v>0.8416402481487738</v>
       </c>
       <c r="K15">
-        <v>0.9710254518349026</v>
+        <v>0.9710254518349039</v>
       </c>
       <c r="L15">
-        <v>0.8560250975507335</v>
+        <v>0.8560250975507339</v>
       </c>
       <c r="M15">
-        <v>0.8217681260091831</v>
+        <v>0.821768126009185</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -959,10 +959,10 @@
         <v>0.9645616874935491</v>
       </c>
       <c r="E16">
-        <v>0.8536931129975799</v>
+        <v>0.85369311299758</v>
       </c>
       <c r="F16">
-        <v>0.8246040754137236</v>
+        <v>0.8246040754137238</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020230451474535</v>
       </c>
       <c r="J16">
-        <v>0.8584174966081057</v>
+        <v>0.858417496608106</v>
       </c>
       <c r="K16">
-        <v>0.9795630321073191</v>
+        <v>0.9795630321073192</v>
       </c>
       <c r="L16">
         <v>0.8712772933272346</v>
       </c>
       <c r="M16">
-        <v>0.8430249144764302</v>
+        <v>0.8430249144764307</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8318635001883794</v>
+        <v>0.8318635001883814</v>
       </c>
       <c r="D17">
-        <v>0.96980565326631</v>
+        <v>0.9698056532663109</v>
       </c>
       <c r="E17">
-        <v>0.862852599706206</v>
+        <v>0.8628525997062075</v>
       </c>
       <c r="F17">
-        <v>0.8372048420436403</v>
+        <v>0.8372048420436421</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022700391777652</v>
+        <v>1.022700391777653</v>
       </c>
       <c r="J17">
-        <v>0.8677670598169657</v>
+        <v>0.8677670598169676</v>
       </c>
       <c r="K17">
-        <v>0.9843646543078103</v>
+        <v>0.9843646543078109</v>
       </c>
       <c r="L17">
-        <v>0.8797846368681652</v>
+        <v>0.8797846368681668</v>
       </c>
       <c r="M17">
-        <v>0.8548294869604788</v>
+        <v>0.8548294869604806</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8379145105159462</v>
+        <v>0.8379145105159469</v>
       </c>
       <c r="D18">
-        <v>0.9727005479131439</v>
+        <v>0.9727005479131438</v>
       </c>
       <c r="E18">
-        <v>0.8678807276801419</v>
+        <v>0.8678807276801426</v>
       </c>
       <c r="F18">
-        <v>0.8440968304588631</v>
+        <v>0.8440968304588632</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.024058301881277</v>
       </c>
       <c r="J18">
-        <v>0.8728915339310296</v>
+        <v>0.8728915339310304</v>
       </c>
       <c r="K18">
-        <v>0.9870077529533822</v>
+        <v>0.9870077529533819</v>
       </c>
       <c r="L18">
-        <v>0.8844498019103125</v>
+        <v>0.8844498019103132</v>
       </c>
       <c r="M18">
         <v>0.8612858078690095</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8399195933632838</v>
+        <v>0.8399195933632854</v>
       </c>
       <c r="D19">
         <v>0.9736628754767922</v>
       </c>
       <c r="E19">
-        <v>0.8695480865269877</v>
+        <v>0.8695480865269889</v>
       </c>
       <c r="F19">
-        <v>0.8463782437338074</v>
+        <v>0.8463782437338077</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024508788548255</v>
       </c>
       <c r="J19">
-        <v>0.8745895795283662</v>
+        <v>0.8745895795283676</v>
       </c>
       <c r="K19">
-        <v>0.9878851736461599</v>
+        <v>0.9878851736461598</v>
       </c>
       <c r="L19">
-        <v>0.8859960110627658</v>
+        <v>0.885996011062767</v>
       </c>
       <c r="M19">
-        <v>0.8634229241739279</v>
+        <v>0.8634229241739284</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8307211547535244</v>
+        <v>0.8307211547535249</v>
       </c>
       <c r="D20">
-        <v>0.969260742425652</v>
+        <v>0.9692607424256522</v>
       </c>
       <c r="E20">
-        <v>0.8619039884680352</v>
+        <v>0.8619039884680355</v>
       </c>
       <c r="F20">
-        <v>0.8359025712148641</v>
+        <v>0.8359025712148647</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022444336754588</v>
       </c>
       <c r="J20">
-        <v>0.8667996336200796</v>
+        <v>0.8667996336200799</v>
       </c>
       <c r="K20">
-        <v>0.9838665331734103</v>
+        <v>0.9838665331734104</v>
       </c>
       <c r="L20">
-        <v>0.8789041048713254</v>
+        <v>0.8789041048713259</v>
       </c>
       <c r="M20">
-        <v>0.85360950894415</v>
+        <v>0.8536095089441504</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7954155649010145</v>
+        <v>0.7954155649010132</v>
       </c>
       <c r="D21">
-        <v>0.95270169773436</v>
+        <v>0.9527016977343595</v>
       </c>
       <c r="E21">
-        <v>0.832689731752141</v>
+        <v>0.8326897317521396</v>
       </c>
       <c r="F21">
-        <v>0.7954918211402755</v>
+        <v>0.7954918211402746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014599119701883</v>
+        <v>1.014599119701882</v>
       </c>
       <c r="J21">
-        <v>0.836908176327664</v>
+        <v>0.8369081763276626</v>
       </c>
       <c r="K21">
-        <v>0.9686381955050164</v>
+        <v>0.9686381955050158</v>
       </c>
       <c r="L21">
-        <v>0.8517263935731139</v>
+        <v>0.8517263935731123</v>
       </c>
       <c r="M21">
-        <v>0.8157568446450708</v>
+        <v>0.81575684464507</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7660326718307102</v>
+        <v>0.7660326718307136</v>
       </c>
       <c r="D22">
-        <v>0.9394027088249446</v>
+        <v>0.9394027088249464</v>
       </c>
       <c r="E22">
-        <v>0.8085429687845882</v>
+        <v>0.8085429687845913</v>
       </c>
       <c r="F22">
-        <v>0.7616587628908146</v>
+        <v>0.7616587628908192</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008215494358494</v>
+        <v>1.008215494358495</v>
       </c>
       <c r="J22">
-        <v>0.8120600128393299</v>
+        <v>0.812060012839333</v>
       </c>
       <c r="K22">
-        <v>0.9562784119749357</v>
+        <v>0.9562784119749376</v>
       </c>
       <c r="L22">
-        <v>0.8291776496788344</v>
+        <v>0.8291776496788374</v>
       </c>
       <c r="M22">
-        <v>0.7840922056687156</v>
+        <v>0.7840922056687198</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7826233909772018</v>
+        <v>0.7826233909772019</v>
       </c>
       <c r="D23">
-        <v>0.9468528935299774</v>
+        <v>0.9468528935299766</v>
       </c>
       <c r="E23">
         <v>0.8221573908314586</v>
       </c>
       <c r="F23">
-        <v>0.7807818238149929</v>
+        <v>0.7807818238149919</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8260856629249964</v>
       </c>
       <c r="K23">
-        <v>0.9632169458393309</v>
+        <v>0.9632169458393302</v>
       </c>
       <c r="L23">
         <v>0.8419004238305963</v>
       </c>
       <c r="M23">
-        <v>0.8019850204917692</v>
+        <v>0.8019850204917685</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8312385070805023</v>
+        <v>0.8312385070805018</v>
       </c>
       <c r="D24">
         <v>0.9695074605489125</v>
       </c>
       <c r="E24">
-        <v>0.8623335763486423</v>
+        <v>0.8623335763486416</v>
       </c>
       <c r="F24">
-        <v>0.8364923963733651</v>
+        <v>0.8364923963733648</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02256028782611</v>
+        <v>1.022560287826109</v>
       </c>
       <c r="J24">
-        <v>0.8672377670616108</v>
+        <v>0.8672377670616104</v>
       </c>
       <c r="K24">
-        <v>0.9840920901717161</v>
+        <v>0.9840920901717162</v>
       </c>
       <c r="L24">
-        <v>0.8793028779592819</v>
+        <v>0.8793028779592813</v>
       </c>
       <c r="M24">
-        <v>0.8541620627616435</v>
+        <v>0.8541620627616433</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8718725338907762</v>
+        <v>0.8718725338907778</v>
       </c>
       <c r="D25">
-        <v>0.9891771282607615</v>
+        <v>0.9891771282607627</v>
       </c>
       <c r="E25">
-        <v>0.8961973526124564</v>
+        <v>0.8961973526124575</v>
       </c>
       <c r="F25">
-        <v>0.8825591528921777</v>
+        <v>0.8825591528921792</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031703053786656</v>
       </c>
       <c r="J25">
-        <v>0.9016418401342526</v>
+        <v>0.901641840134254</v>
       </c>
       <c r="K25">
-        <v>1.001945811421687</v>
+        <v>1.001945811421688</v>
       </c>
       <c r="L25">
-        <v>0.9106535512634597</v>
+        <v>0.9106535512634608</v>
       </c>
       <c r="M25">
-        <v>0.8973025559832083</v>
+        <v>0.8973025559832098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8980762145450382</v>
+        <v>0.8980762145450402</v>
       </c>
       <c r="D2">
-        <v>1.002086748373691</v>
+        <v>1.002086748373692</v>
       </c>
       <c r="E2">
-        <v>0.9181542753333143</v>
+        <v>0.9181542753333165</v>
       </c>
       <c r="F2">
-        <v>0.9119369074296065</v>
+        <v>0.9119369074296083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576071708595</v>
+        <v>1.037576071708596</v>
       </c>
       <c r="J2">
-        <v>0.9238004927861542</v>
+        <v>0.9238004927861563</v>
       </c>
       <c r="K2">
-        <v>1.013517087831404</v>
+        <v>1.013517087831405</v>
       </c>
       <c r="L2">
-        <v>0.9308852756527507</v>
+        <v>0.9308852756527528</v>
       </c>
       <c r="M2">
-        <v>0.9247766011151748</v>
+        <v>0.9247766011151763</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9148226566518194</v>
+        <v>0.9148226566518182</v>
       </c>
       <c r="D3">
-        <v>1.010381882776311</v>
+        <v>1.01038188277631</v>
       </c>
       <c r="E3">
-        <v>0.9322312371218451</v>
+        <v>0.9322312371218443</v>
       </c>
       <c r="F3">
-        <v>0.9305394231984034</v>
+        <v>0.9305394231984022</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041282904175679</v>
+        <v>1.041282904175678</v>
       </c>
       <c r="J3">
-        <v>0.9379392263150443</v>
+        <v>0.9379392263150432</v>
       </c>
       <c r="K3">
-        <v>1.020883626744038</v>
+        <v>1.020883626744037</v>
       </c>
       <c r="L3">
-        <v>0.9438115299709613</v>
+        <v>0.9438115299709604</v>
       </c>
       <c r="M3">
-        <v>0.9421456193304947</v>
+        <v>0.9421456193304936</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9248529017297089</v>
+        <v>0.9248529017297101</v>
       </c>
       <c r="D4">
         <v>1.015353178663636</v>
       </c>
       <c r="E4">
-        <v>0.9406783422784991</v>
+        <v>0.9406783422785003</v>
       </c>
       <c r="F4">
-        <v>0.9416052810185689</v>
+        <v>0.9416052810185697</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043474619572029</v>
       </c>
       <c r="J4">
-        <v>0.9463959110657065</v>
+        <v>0.9463959110657076</v>
       </c>
       <c r="K4">
         <v>1.025269769586224</v>
       </c>
       <c r="L4">
-        <v>0.9515496939907206</v>
+        <v>0.9515496939907219</v>
       </c>
       <c r="M4">
-        <v>0.9524636098366004</v>
+        <v>0.9524636098366009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9289036623669455</v>
+        <v>0.9289036623669464</v>
       </c>
       <c r="D5">
-        <v>1.017359518377023</v>
+        <v>1.017359518377024</v>
       </c>
       <c r="E5">
-        <v>0.944092985414217</v>
+        <v>0.9440929854142176</v>
       </c>
       <c r="F5">
-        <v>0.9460563672019869</v>
+        <v>0.9460563672019877</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044352088464384</v>
       </c>
       <c r="J5">
-        <v>0.9498082370348491</v>
+        <v>0.9498082370348498</v>
       </c>
       <c r="K5">
-        <v>1.027033385036796</v>
+        <v>1.027033385036797</v>
       </c>
       <c r="L5">
-        <v>0.9546735698841587</v>
+        <v>0.9546735698841595</v>
       </c>
       <c r="M5">
-        <v>0.9566103524795003</v>
+        <v>0.9566103524795011</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9295747348530609</v>
+        <v>0.9295747348530614</v>
       </c>
       <c r="D6">
         <v>1.017691768609883</v>
       </c>
       <c r="E6">
-        <v>0.9446588524650221</v>
+        <v>0.9446588524650227</v>
       </c>
       <c r="F6">
-        <v>0.946792712553633</v>
+        <v>0.9467927125536334</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044496981789899</v>
       </c>
       <c r="J6">
-        <v>0.9503733655850731</v>
+        <v>0.9503733655850738</v>
       </c>
       <c r="K6">
         <v>1.027325060433223</v>
       </c>
       <c r="L6">
-        <v>0.9551910109964871</v>
+        <v>0.9551910109964875</v>
       </c>
       <c r="M6">
-        <v>0.957296138778309</v>
+        <v>0.9572961387783097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.92490764949292</v>
+        <v>0.9249076494929199</v>
       </c>
       <c r="D7">
-        <v>1.015380303005516</v>
+        <v>1.015380303005517</v>
       </c>
       <c r="E7">
         <v>0.9407244803331939</v>
       </c>
       <c r="F7">
-        <v>0.9416655104783496</v>
+        <v>0.9416655104783495</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043486510543866</v>
       </c>
       <c r="J7">
-        <v>0.9464420420368808</v>
+        <v>0.9464420420368809</v>
       </c>
       <c r="K7">
         <v>1.025293638340832</v>
       </c>
       <c r="L7">
-        <v>0.9515919196752675</v>
+        <v>0.9515919196752678</v>
       </c>
       <c r="M7">
-        <v>0.952519735359631</v>
+        <v>0.9525197353596311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,10 +652,10 @@
         <v>0.9039211816340416</v>
       </c>
       <c r="D8">
-        <v>1.004979886942746</v>
+        <v>1.004979886942745</v>
       </c>
       <c r="E8">
-        <v>0.9230637060397269</v>
+        <v>0.9230637060397271</v>
       </c>
       <c r="F8">
         <v>0.9184465297227151</v>
@@ -667,7 +667,7 @@
         <v>1.038875480355407</v>
       </c>
       <c r="J8">
-        <v>0.9287377403238278</v>
+        <v>0.9287377403238276</v>
       </c>
       <c r="K8">
         <v>1.016092822401862</v>
@@ -676,7 +676,7 @@
         <v>0.9353975740236805</v>
       </c>
       <c r="M8">
-        <v>0.9308575728954429</v>
+        <v>0.9308575728954428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8590097261580857</v>
+        <v>0.8590097261580895</v>
       </c>
       <c r="D9">
-        <v>0.9828947549356781</v>
+        <v>0.9828947549356805</v>
       </c>
       <c r="E9">
-        <v>0.8854522830249939</v>
+        <v>0.885452283024997</v>
       </c>
       <c r="F9">
-        <v>0.8680364595472462</v>
+        <v>0.8680364595472508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028806007187014</v>
+        <v>1.028806007187015</v>
       </c>
       <c r="J9">
-        <v>0.8907543888115205</v>
+        <v>0.8907543888115241</v>
       </c>
       <c r="K9">
-        <v>0.9962715862930269</v>
+        <v>0.9962715862930293</v>
       </c>
       <c r="L9">
-        <v>0.9007243743621955</v>
+        <v>0.9007243743621987</v>
       </c>
       <c r="M9">
-        <v>0.883707414873948</v>
+        <v>0.8837074148739527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.81951587948226</v>
+        <v>0.8195158794822609</v>
       </c>
       <c r="D10">
-        <v>0.9639441974877329</v>
+        <v>0.9639441974877324</v>
       </c>
       <c r="E10">
-        <v>0.8526098747726504</v>
+        <v>0.8526098747726513</v>
       </c>
       <c r="F10">
-        <v>0.8231099865320345</v>
+        <v>0.8231099865320344</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019938775225419</v>
       </c>
       <c r="J10">
-        <v>0.8573105441716901</v>
+        <v>0.8573105441716908</v>
       </c>
       <c r="K10">
-        <v>0.9789964650314594</v>
+        <v>0.9789964650314591</v>
       </c>
       <c r="L10">
-        <v>0.8702704177668461</v>
+        <v>0.8702704177668472</v>
       </c>
       <c r="M10">
-        <v>0.8416252503889771</v>
+        <v>0.841625250388977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7979790359022458</v>
+        <v>0.7979790359022453</v>
       </c>
       <c r="D11">
-        <v>0.9538840832995891</v>
+        <v>0.9538840832995876</v>
       </c>
       <c r="E11">
-        <v>0.8348038642517623</v>
+        <v>0.8348038642517621</v>
       </c>
       <c r="F11">
-        <v>0.7984356393055995</v>
+        <v>0.7984356393055974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015163224276334</v>
+        <v>1.015163224276333</v>
       </c>
       <c r="J11">
-        <v>0.8390776231662126</v>
+        <v>0.8390776231662124</v>
       </c>
       <c r="K11">
-        <v>0.9697314285500258</v>
+        <v>0.9697314285500244</v>
       </c>
       <c r="L11">
-        <v>0.8536969829039591</v>
+        <v>0.853696982903959</v>
       </c>
       <c r="M11">
-        <v>0.8185135650752511</v>
+        <v>0.8185135650752492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7888726550460406</v>
+        <v>0.788872655046043</v>
       </c>
       <c r="D12">
-        <v>0.9496992598007534</v>
+        <v>0.9496992598007538</v>
       </c>
       <c r="E12">
-        <v>0.8272989786437148</v>
+        <v>0.8272989786437168</v>
       </c>
       <c r="F12">
-        <v>0.7879720111038276</v>
+        <v>0.7879720111038295</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.013164106547791</v>
       </c>
       <c r="J12">
-        <v>0.8313719442484818</v>
+        <v>0.8313719442484839</v>
       </c>
       <c r="K12">
-        <v>0.9658580457087954</v>
+        <v>0.9658580457087956</v>
       </c>
       <c r="L12">
-        <v>0.8466989960462976</v>
+        <v>0.8466989960462997</v>
       </c>
       <c r="M12">
-        <v>0.8087158942578246</v>
+        <v>0.8087158942578268</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908887995157515</v>
+        <v>0.7908887995157523</v>
       </c>
       <c r="D13">
-        <v>0.9506220394079471</v>
+        <v>0.9506220394079479</v>
       </c>
       <c r="E13">
-        <v>0.8289592789650313</v>
+        <v>0.8289592789650316</v>
       </c>
       <c r="F13">
-        <v>0.7902900981128556</v>
+        <v>0.7902900981128563</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013605539713513</v>
+        <v>1.013605539713514</v>
       </c>
       <c r="J13">
-        <v>0.8330777296718311</v>
+        <v>0.8330777296718316</v>
       </c>
       <c r="K13">
-        <v>0.9667131341961653</v>
+        <v>0.9667131341961658</v>
       </c>
       <c r="L13">
-        <v>0.8482477927015234</v>
+        <v>0.8482477927015236</v>
       </c>
       <c r="M13">
-        <v>0.8108862133740282</v>
+        <v>0.8108862133740288</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.7972531816708421</v>
       </c>
       <c r="D14">
-        <v>0.953548947354772</v>
+        <v>0.9535489473547714</v>
       </c>
       <c r="E14">
         <v>0.8342051245498626</v>
       </c>
       <c r="F14">
-        <v>0.7976022287541519</v>
+        <v>0.7976022287541513</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015003392976418</v>
       </c>
       <c r="J14">
-        <v>0.8384633174583174</v>
+        <v>0.8384633174583175</v>
       </c>
       <c r="K14">
-        <v>0.9694216543266954</v>
+        <v>0.9694216543266947</v>
       </c>
       <c r="L14">
-        <v>0.8531389556281346</v>
+        <v>0.8531389556281347</v>
       </c>
       <c r="M14">
-        <v>0.8177331038749024</v>
+        <v>0.8177331038749019</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8010067974545538</v>
+        <v>0.8010067974545533</v>
       </c>
       <c r="D15">
-        <v>0.9552849038075829</v>
+        <v>0.9552849038075817</v>
       </c>
       <c r="E15">
-        <v>0.8373023814819208</v>
+        <v>0.8373023814819204</v>
       </c>
       <c r="F15">
-        <v>0.8019108394814574</v>
+        <v>0.8019108394814553</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01583078996573</v>
       </c>
       <c r="J15">
-        <v>0.8416402481487738</v>
+        <v>0.8416402481487733</v>
       </c>
       <c r="K15">
-        <v>0.9710254518349039</v>
+        <v>0.9710254518349026</v>
       </c>
       <c r="L15">
-        <v>0.8560250975507339</v>
+        <v>0.8560250975507335</v>
       </c>
       <c r="M15">
-        <v>0.821768126009185</v>
+        <v>0.8217681260091831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -959,10 +959,10 @@
         <v>0.9645616874935491</v>
       </c>
       <c r="E16">
-        <v>0.85369311299758</v>
+        <v>0.8536931129975799</v>
       </c>
       <c r="F16">
-        <v>0.8246040754137238</v>
+        <v>0.8246040754137236</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020230451474535</v>
       </c>
       <c r="J16">
-        <v>0.858417496608106</v>
+        <v>0.8584174966081057</v>
       </c>
       <c r="K16">
-        <v>0.9795630321073192</v>
+        <v>0.9795630321073191</v>
       </c>
       <c r="L16">
         <v>0.8712772933272346</v>
       </c>
       <c r="M16">
-        <v>0.8430249144764307</v>
+        <v>0.8430249144764302</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8318635001883814</v>
+        <v>0.8318635001883794</v>
       </c>
       <c r="D17">
-        <v>0.9698056532663109</v>
+        <v>0.96980565326631</v>
       </c>
       <c r="E17">
-        <v>0.8628525997062075</v>
+        <v>0.862852599706206</v>
       </c>
       <c r="F17">
-        <v>0.8372048420436421</v>
+        <v>0.8372048420436403</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022700391777653</v>
+        <v>1.022700391777652</v>
       </c>
       <c r="J17">
-        <v>0.8677670598169676</v>
+        <v>0.8677670598169657</v>
       </c>
       <c r="K17">
-        <v>0.9843646543078109</v>
+        <v>0.9843646543078103</v>
       </c>
       <c r="L17">
-        <v>0.8797846368681668</v>
+        <v>0.8797846368681652</v>
       </c>
       <c r="M17">
-        <v>0.8548294869604806</v>
+        <v>0.8548294869604788</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8379145105159469</v>
+        <v>0.8379145105159462</v>
       </c>
       <c r="D18">
-        <v>0.9727005479131438</v>
+        <v>0.9727005479131439</v>
       </c>
       <c r="E18">
-        <v>0.8678807276801426</v>
+        <v>0.8678807276801419</v>
       </c>
       <c r="F18">
-        <v>0.8440968304588632</v>
+        <v>0.8440968304588631</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.024058301881277</v>
       </c>
       <c r="J18">
-        <v>0.8728915339310304</v>
+        <v>0.8728915339310296</v>
       </c>
       <c r="K18">
-        <v>0.9870077529533819</v>
+        <v>0.9870077529533822</v>
       </c>
       <c r="L18">
-        <v>0.8844498019103132</v>
+        <v>0.8844498019103125</v>
       </c>
       <c r="M18">
         <v>0.8612858078690095</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8399195933632854</v>
+        <v>0.8399195933632838</v>
       </c>
       <c r="D19">
         <v>0.9736628754767922</v>
       </c>
       <c r="E19">
-        <v>0.8695480865269889</v>
+        <v>0.8695480865269877</v>
       </c>
       <c r="F19">
-        <v>0.8463782437338077</v>
+        <v>0.8463782437338074</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024508788548255</v>
       </c>
       <c r="J19">
-        <v>0.8745895795283676</v>
+        <v>0.8745895795283662</v>
       </c>
       <c r="K19">
-        <v>0.9878851736461598</v>
+        <v>0.9878851736461599</v>
       </c>
       <c r="L19">
-        <v>0.885996011062767</v>
+        <v>0.8859960110627658</v>
       </c>
       <c r="M19">
-        <v>0.8634229241739284</v>
+        <v>0.8634229241739279</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8307211547535249</v>
+        <v>0.8307211547535244</v>
       </c>
       <c r="D20">
-        <v>0.9692607424256522</v>
+        <v>0.969260742425652</v>
       </c>
       <c r="E20">
-        <v>0.8619039884680355</v>
+        <v>0.8619039884680352</v>
       </c>
       <c r="F20">
-        <v>0.8359025712148647</v>
+        <v>0.8359025712148641</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022444336754588</v>
       </c>
       <c r="J20">
-        <v>0.8667996336200799</v>
+        <v>0.8667996336200796</v>
       </c>
       <c r="K20">
-        <v>0.9838665331734104</v>
+        <v>0.9838665331734103</v>
       </c>
       <c r="L20">
-        <v>0.8789041048713259</v>
+        <v>0.8789041048713254</v>
       </c>
       <c r="M20">
-        <v>0.8536095089441504</v>
+        <v>0.85360950894415</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7954155649010132</v>
+        <v>0.7954155649010145</v>
       </c>
       <c r="D21">
-        <v>0.9527016977343595</v>
+        <v>0.95270169773436</v>
       </c>
       <c r="E21">
-        <v>0.8326897317521396</v>
+        <v>0.832689731752141</v>
       </c>
       <c r="F21">
-        <v>0.7954918211402746</v>
+        <v>0.7954918211402755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014599119701882</v>
+        <v>1.014599119701883</v>
       </c>
       <c r="J21">
-        <v>0.8369081763276626</v>
+        <v>0.836908176327664</v>
       </c>
       <c r="K21">
-        <v>0.9686381955050158</v>
+        <v>0.9686381955050164</v>
       </c>
       <c r="L21">
-        <v>0.8517263935731123</v>
+        <v>0.8517263935731139</v>
       </c>
       <c r="M21">
-        <v>0.81575684464507</v>
+        <v>0.8157568446450708</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7660326718307136</v>
+        <v>0.7660326718307102</v>
       </c>
       <c r="D22">
-        <v>0.9394027088249464</v>
+        <v>0.9394027088249446</v>
       </c>
       <c r="E22">
-        <v>0.8085429687845913</v>
+        <v>0.8085429687845882</v>
       </c>
       <c r="F22">
-        <v>0.7616587628908192</v>
+        <v>0.7616587628908146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008215494358495</v>
+        <v>1.008215494358494</v>
       </c>
       <c r="J22">
-        <v>0.812060012839333</v>
+        <v>0.8120600128393299</v>
       </c>
       <c r="K22">
-        <v>0.9562784119749376</v>
+        <v>0.9562784119749357</v>
       </c>
       <c r="L22">
-        <v>0.8291776496788374</v>
+        <v>0.8291776496788344</v>
       </c>
       <c r="M22">
-        <v>0.7840922056687198</v>
+        <v>0.7840922056687156</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7826233909772019</v>
+        <v>0.7826233909772018</v>
       </c>
       <c r="D23">
-        <v>0.9468528935299766</v>
+        <v>0.9468528935299774</v>
       </c>
       <c r="E23">
         <v>0.8221573908314586</v>
       </c>
       <c r="F23">
-        <v>0.7807818238149919</v>
+        <v>0.7807818238149929</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8260856629249964</v>
       </c>
       <c r="K23">
-        <v>0.9632169458393302</v>
+        <v>0.9632169458393309</v>
       </c>
       <c r="L23">
         <v>0.8419004238305963</v>
       </c>
       <c r="M23">
-        <v>0.8019850204917685</v>
+        <v>0.8019850204917692</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8312385070805018</v>
+        <v>0.8312385070805023</v>
       </c>
       <c r="D24">
         <v>0.9695074605489125</v>
       </c>
       <c r="E24">
-        <v>0.8623335763486416</v>
+        <v>0.8623335763486423</v>
       </c>
       <c r="F24">
-        <v>0.8364923963733648</v>
+        <v>0.8364923963733651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022560287826109</v>
+        <v>1.02256028782611</v>
       </c>
       <c r="J24">
-        <v>0.8672377670616104</v>
+        <v>0.8672377670616108</v>
       </c>
       <c r="K24">
-        <v>0.9840920901717162</v>
+        <v>0.9840920901717161</v>
       </c>
       <c r="L24">
-        <v>0.8793028779592813</v>
+        <v>0.8793028779592819</v>
       </c>
       <c r="M24">
-        <v>0.8541620627616433</v>
+        <v>0.8541620627616435</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8718725338907778</v>
+        <v>0.8718725338907762</v>
       </c>
       <c r="D25">
-        <v>0.9891771282607627</v>
+        <v>0.9891771282607615</v>
       </c>
       <c r="E25">
-        <v>0.8961973526124575</v>
+        <v>0.8961973526124564</v>
       </c>
       <c r="F25">
-        <v>0.8825591528921792</v>
+        <v>0.8825591528921777</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031703053786656</v>
       </c>
       <c r="J25">
-        <v>0.901641840134254</v>
+        <v>0.9016418401342526</v>
       </c>
       <c r="K25">
-        <v>1.001945811421688</v>
+        <v>1.001945811421687</v>
       </c>
       <c r="L25">
-        <v>0.9106535512634608</v>
+        <v>0.9106535512634597</v>
       </c>
       <c r="M25">
-        <v>0.8973025559832098</v>
+        <v>0.8973025559832083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8980762145450402</v>
+        <v>0.8982093048880574</v>
       </c>
       <c r="D2">
-        <v>1.002086748373692</v>
+        <v>1.002111718153194</v>
       </c>
       <c r="E2">
-        <v>0.9181542753333165</v>
+        <v>0.9182701466405562</v>
       </c>
       <c r="F2">
-        <v>0.9119369074296083</v>
+        <v>0.9120282423556811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576071708596</v>
+        <v>1.03758873929152</v>
       </c>
       <c r="J2">
-        <v>0.9238004927861563</v>
+        <v>0.9239282089536657</v>
       </c>
       <c r="K2">
-        <v>1.013517087831405</v>
+        <v>1.013541711577968</v>
       </c>
       <c r="L2">
-        <v>0.9308852756527528</v>
+        <v>0.930999139350242</v>
       </c>
       <c r="M2">
-        <v>0.9247766011151763</v>
+        <v>0.9248663253987794</v>
+      </c>
+      <c r="N2">
+        <v>0.9504386963760196</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9148226566518182</v>
+        <v>0.9149313154925213</v>
       </c>
       <c r="D3">
-        <v>1.01038188277631</v>
+        <v>1.010401797620986</v>
       </c>
       <c r="E3">
-        <v>0.9322312371218443</v>
+        <v>0.9323261285604449</v>
       </c>
       <c r="F3">
-        <v>0.9305394231984022</v>
+        <v>0.9306129018270851</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041282904175678</v>
+        <v>1.041293020392383</v>
       </c>
       <c r="J3">
-        <v>0.9379392263150432</v>
+        <v>0.9380440987921632</v>
       </c>
       <c r="K3">
-        <v>1.020883626744037</v>
+        <v>1.020903293265324</v>
       </c>
       <c r="L3">
-        <v>0.9438115299709604</v>
+        <v>0.9439049720820988</v>
       </c>
       <c r="M3">
-        <v>0.9421456193304936</v>
+        <v>0.9422179704350058</v>
+      </c>
+      <c r="N3">
+        <v>0.9600977052396704</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9248529017297101</v>
+        <v>0.9249478706338817</v>
       </c>
       <c r="D4">
-        <v>1.015353178663636</v>
+        <v>1.015370359698183</v>
       </c>
       <c r="E4">
-        <v>0.9406783422785003</v>
+        <v>0.9407614253812743</v>
       </c>
       <c r="F4">
-        <v>0.9416052810185697</v>
+        <v>0.9416689855556052</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043474619572029</v>
+        <v>1.043483354216805</v>
       </c>
       <c r="J4">
-        <v>0.9463959110657076</v>
+        <v>0.9464878721622126</v>
       </c>
       <c r="K4">
-        <v>1.025269769586224</v>
+        <v>1.025286750947281</v>
       </c>
       <c r="L4">
-        <v>0.9515496939907219</v>
+        <v>0.9516316085065314</v>
       </c>
       <c r="M4">
-        <v>0.9524636098366009</v>
+        <v>0.9525264205549488</v>
+      </c>
+      <c r="N4">
+        <v>0.9658734351033076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9289036623669464</v>
+        <v>0.9289932794911336</v>
       </c>
       <c r="D5">
-        <v>1.017359518377024</v>
+        <v>1.017375649859702</v>
       </c>
       <c r="E5">
-        <v>0.9440929854142176</v>
+        <v>0.9441714421994706</v>
       </c>
       <c r="F5">
-        <v>0.9460563672019877</v>
+        <v>0.9461162953101951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044352088464384</v>
+        <v>1.044360292314752</v>
       </c>
       <c r="J5">
-        <v>0.9498082370348498</v>
+        <v>0.9498951281804109</v>
       </c>
       <c r="K5">
-        <v>1.027033385036797</v>
+        <v>1.027049334617441</v>
       </c>
       <c r="L5">
-        <v>0.9546735698841595</v>
+        <v>0.9547509610950761</v>
       </c>
       <c r="M5">
-        <v>0.9566103524795011</v>
+        <v>0.9566694708866085</v>
+      </c>
+      <c r="N5">
+        <v>0.9682035163117562</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9295747348530614</v>
+        <v>0.9296634746468746</v>
       </c>
       <c r="D6">
-        <v>1.017691768609883</v>
+        <v>1.017707729058944</v>
       </c>
       <c r="E6">
-        <v>0.9446588524650227</v>
+        <v>0.9447365503108904</v>
       </c>
       <c r="F6">
-        <v>0.9467927125536334</v>
+        <v>0.9468520239467145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044496981789899</v>
+        <v>1.044505099120541</v>
       </c>
       <c r="J6">
-        <v>0.9503733655850738</v>
+        <v>0.9504594243743562</v>
       </c>
       <c r="K6">
-        <v>1.027325060433223</v>
+        <v>1.02734084182532</v>
       </c>
       <c r="L6">
-        <v>0.9551910109964875</v>
+        <v>0.955267659782145</v>
       </c>
       <c r="M6">
-        <v>0.9572961387783097</v>
+        <v>0.9573546538713854</v>
+      </c>
+      <c r="N6">
+        <v>0.9685893805394519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9249076494929199</v>
+        <v>0.9250025454133358</v>
       </c>
       <c r="D7">
-        <v>1.015380303005517</v>
+        <v>1.015397469654816</v>
       </c>
       <c r="E7">
-        <v>0.9407244803331939</v>
+        <v>0.9408075003834829</v>
       </c>
       <c r="F7">
-        <v>0.9416655104783495</v>
+        <v>0.9417291633478941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043486510543866</v>
+        <v>1.043495237915067</v>
       </c>
       <c r="J7">
-        <v>0.9464420420368809</v>
+        <v>0.9465339340791089</v>
       </c>
       <c r="K7">
-        <v>1.025293638340832</v>
+        <v>1.025310605563777</v>
       </c>
       <c r="L7">
-        <v>0.9515919196752678</v>
+        <v>0.9516737725694439</v>
       </c>
       <c r="M7">
-        <v>0.9525197353596311</v>
+        <v>0.9525824955850151</v>
+      </c>
+      <c r="N7">
+        <v>0.9659049372464927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9039211816340416</v>
+        <v>0.9040455015411141</v>
       </c>
       <c r="D8">
-        <v>1.004979886942745</v>
+        <v>1.005003016139275</v>
       </c>
       <c r="E8">
-        <v>0.9230637060397271</v>
+        <v>0.9231720598504107</v>
       </c>
       <c r="F8">
-        <v>0.9184465297227151</v>
+        <v>0.9185313932604646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038875480355407</v>
+        <v>1.038887219374405</v>
       </c>
       <c r="J8">
-        <v>0.9287377403238276</v>
+        <v>0.9288572845130728</v>
       </c>
       <c r="K8">
-        <v>1.016092822401862</v>
+        <v>1.016115642195961</v>
       </c>
       <c r="L8">
-        <v>0.9353975740236805</v>
+        <v>0.9355041286590815</v>
       </c>
       <c r="M8">
-        <v>0.9308575728954428</v>
+        <v>0.9309410089303581</v>
+      </c>
+      <c r="N8">
+        <v>0.9538118887135236</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8590097261580895</v>
+        <v>0.8592099922031861</v>
       </c>
       <c r="D9">
-        <v>0.9828947549356805</v>
+        <v>0.9829347609063084</v>
       </c>
       <c r="E9">
-        <v>0.885452283024997</v>
+        <v>0.8856252304861972</v>
       </c>
       <c r="F9">
-        <v>0.8680364595472508</v>
+        <v>0.8681796267366849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028806007187015</v>
+        <v>1.028826247319457</v>
       </c>
       <c r="J9">
-        <v>0.8907543888115241</v>
+        <v>0.8909437396813293</v>
       </c>
       <c r="K9">
-        <v>0.9962715862930293</v>
+        <v>0.9963109137442334</v>
       </c>
       <c r="L9">
-        <v>0.9007243743621987</v>
+        <v>0.9008934656429377</v>
       </c>
       <c r="M9">
-        <v>0.8837074148739527</v>
+        <v>0.8838472157825537</v>
+      </c>
+      <c r="N9">
+        <v>0.9278605051252762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8195158794822609</v>
+        <v>0.8198069464410807</v>
       </c>
       <c r="D10">
-        <v>0.9639441974877324</v>
+        <v>0.9640069173807699</v>
       </c>
       <c r="E10">
-        <v>0.8526098747726513</v>
+        <v>0.8528587120776213</v>
       </c>
       <c r="F10">
-        <v>0.8231099865320344</v>
+        <v>0.8233291987444014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019938775225419</v>
+        <v>1.019970429219396</v>
       </c>
       <c r="J10">
-        <v>0.8573105441716908</v>
+        <v>0.8575810294435443</v>
       </c>
       <c r="K10">
-        <v>0.9789964650314591</v>
+        <v>0.9790579384916358</v>
       </c>
       <c r="L10">
-        <v>0.8702704177668472</v>
+        <v>0.8705123879385496</v>
       </c>
       <c r="M10">
-        <v>0.841625250388977</v>
+        <v>0.8418377997237415</v>
+      </c>
+      <c r="N10">
+        <v>0.9050263157515801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7979790359022453</v>
+        <v>0.7983360480045745</v>
       </c>
       <c r="D11">
-        <v>0.9538840832995876</v>
+        <v>0.953964727877769</v>
       </c>
       <c r="E11">
-        <v>0.8348038642517621</v>
+        <v>0.8351070977467762</v>
       </c>
       <c r="F11">
-        <v>0.7984356393055974</v>
+        <v>0.7987138171255311</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015163224276333</v>
+        <v>1.015203874928538</v>
       </c>
       <c r="J11">
-        <v>0.8390776231662124</v>
+        <v>0.8394059052428319</v>
       </c>
       <c r="K11">
-        <v>0.9697314285500244</v>
+        <v>0.9698103512747481</v>
       </c>
       <c r="L11">
-        <v>0.853696982903959</v>
+        <v>0.8539909348970323</v>
       </c>
       <c r="M11">
-        <v>0.8185135650752492</v>
+        <v>0.8187821076087691</v>
+      </c>
+      <c r="N11">
+        <v>0.8925933617598414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.788872655046043</v>
+        <v>0.7892628490894482</v>
       </c>
       <c r="D12">
-        <v>0.9496992598007538</v>
+        <v>0.9497892999570333</v>
       </c>
       <c r="E12">
-        <v>0.8272989786437168</v>
+        <v>0.8276294030860005</v>
       </c>
       <c r="F12">
-        <v>0.7879720111038295</v>
+        <v>0.7882808750211627</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013164106547791</v>
+        <v>1.013209470843201</v>
       </c>
       <c r="J12">
-        <v>0.8313719442484839</v>
+        <v>0.8317290436772474</v>
       </c>
       <c r="K12">
-        <v>0.9658580457087956</v>
+        <v>0.9659461094685967</v>
       </c>
       <c r="L12">
-        <v>0.8466989960462997</v>
+        <v>0.8470188773318501</v>
       </c>
       <c r="M12">
-        <v>0.8087158942578268</v>
+        <v>0.8090134688287817</v>
+      </c>
+      <c r="N12">
+        <v>0.8873439499228504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908887995157523</v>
+        <v>0.7912713189209334</v>
       </c>
       <c r="D13">
-        <v>0.9506220394079479</v>
+        <v>0.9507098861241046</v>
       </c>
       <c r="E13">
-        <v>0.8289592789650316</v>
+        <v>0.8292834238756199</v>
       </c>
       <c r="F13">
-        <v>0.7902900981128563</v>
+        <v>0.7905918090088594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013605539713514</v>
+        <v>1.013649803689602</v>
       </c>
       <c r="J13">
-        <v>0.8330777296718316</v>
+        <v>0.8334281774974461</v>
       </c>
       <c r="K13">
-        <v>0.9667131341961658</v>
+        <v>0.9667990641910097</v>
       </c>
       <c r="L13">
-        <v>0.8482477927015236</v>
+        <v>0.8485616885147645</v>
       </c>
       <c r="M13">
-        <v>0.8108862133740288</v>
+        <v>0.8111770262029077</v>
+      </c>
+      <c r="N13">
+        <v>0.8885056935710531</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7972531816708421</v>
+        <v>0.7976127052025301</v>
       </c>
       <c r="D14">
-        <v>0.9535489473547714</v>
+        <v>0.9536302948542549</v>
       </c>
       <c r="E14">
-        <v>0.8342051245498626</v>
+        <v>0.8345104198721162</v>
       </c>
       <c r="F14">
-        <v>0.7976022287541513</v>
+        <v>0.7978827067405133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015003392976418</v>
+        <v>1.015044396317263</v>
       </c>
       <c r="J14">
-        <v>0.8384633174583175</v>
+        <v>0.8387937861546599</v>
       </c>
       <c r="K14">
-        <v>0.9694216543266947</v>
+        <v>0.9695012610328269</v>
       </c>
       <c r="L14">
-        <v>0.8531389556281347</v>
+        <v>0.853434874890754</v>
       </c>
       <c r="M14">
-        <v>0.8177331038749019</v>
+        <v>0.8180038248820227</v>
+      </c>
+      <c r="N14">
+        <v>0.8921747476614297</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8010067974545533</v>
+        <v>0.8013535623481316</v>
       </c>
       <c r="D15">
-        <v>0.9552849038075817</v>
+        <v>0.9553626948602622</v>
       </c>
       <c r="E15">
-        <v>0.8373023814819204</v>
+        <v>0.8375971953504607</v>
       </c>
       <c r="F15">
-        <v>0.8019108394814553</v>
+        <v>0.8021796715631148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01583078996573</v>
+        <v>1.01587000879223</v>
       </c>
       <c r="J15">
-        <v>0.8416402481487733</v>
+        <v>0.8419595982582972</v>
       </c>
       <c r="K15">
-        <v>0.9710254518349026</v>
+        <v>0.9711015977270473</v>
       </c>
       <c r="L15">
-        <v>0.8560250975507335</v>
+        <v>0.8563110139921088</v>
       </c>
       <c r="M15">
-        <v>0.8217681260091831</v>
+        <v>0.8220278131777906</v>
+      </c>
+      <c r="N15">
+        <v>0.8943398609150054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8208231021927207</v>
+        <v>0.821110624995678</v>
       </c>
       <c r="D16">
-        <v>0.9645616874935491</v>
+        <v>0.96462347528555</v>
       </c>
       <c r="E16">
-        <v>0.8536931129975799</v>
+        <v>0.8539390114670905</v>
       </c>
       <c r="F16">
-        <v>0.8246040754137236</v>
+        <v>0.8248202016631857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020230451474535</v>
+        <v>1.020261637440339</v>
       </c>
       <c r="J16">
-        <v>0.8584174966081057</v>
+        <v>0.8586848523768508</v>
       </c>
       <c r="K16">
-        <v>0.9795630321073191</v>
+        <v>0.9796235976972466</v>
       </c>
       <c r="L16">
-        <v>0.8712772933272346</v>
+        <v>0.8715164500298778</v>
       </c>
       <c r="M16">
-        <v>0.8430249144764302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8432345247006126</v>
+      </c>
+      <c r="N16">
+        <v>0.905781590463782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8318635001883794</v>
+        <v>0.8321227852933827</v>
       </c>
       <c r="D17">
-        <v>0.96980565326631</v>
+        <v>0.9698601397612902</v>
       </c>
       <c r="E17">
-        <v>0.862852599706206</v>
+        <v>0.8630750201718747</v>
       </c>
       <c r="F17">
-        <v>0.8372048420436403</v>
+        <v>0.8373967086396865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022700391777652</v>
+        <v>1.022727910730698</v>
       </c>
       <c r="J17">
-        <v>0.8677670598169657</v>
+        <v>0.8680093829329406</v>
       </c>
       <c r="K17">
-        <v>0.9843646543078103</v>
+        <v>0.9844181061556732</v>
       </c>
       <c r="L17">
-        <v>0.8797846368681652</v>
+        <v>0.8800012945979635</v>
       </c>
       <c r="M17">
-        <v>0.8548294869604788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8550159569292773</v>
+      </c>
+      <c r="N17">
+        <v>0.9121624668196836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8379145105159462</v>
+        <v>0.8381594767932805</v>
       </c>
       <c r="D18">
-        <v>0.9727005479131439</v>
+        <v>0.972751420727144</v>
       </c>
       <c r="E18">
-        <v>0.8678807276801419</v>
+        <v>0.8680911976171612</v>
       </c>
       <c r="F18">
-        <v>0.8440968304588631</v>
+        <v>0.8442766255304356</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024058301881277</v>
+        <v>1.024084005235654</v>
       </c>
       <c r="J18">
-        <v>0.8728915339310296</v>
+        <v>0.8731210914925573</v>
       </c>
       <c r="K18">
-        <v>0.9870077529533822</v>
+        <v>0.9870576822427568</v>
       </c>
       <c r="L18">
-        <v>0.8844498019103125</v>
+        <v>0.8846549906525097</v>
       </c>
       <c r="M18">
-        <v>0.8612858078690095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8614607384118216</v>
+      </c>
+      <c r="N18">
+        <v>0.915660927783692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8399195933632838</v>
+        <v>0.840159977192361</v>
       </c>
       <c r="D19">
-        <v>0.9736628754767922</v>
+        <v>0.9737126049523506</v>
       </c>
       <c r="E19">
-        <v>0.8695480865269877</v>
+        <v>0.8697547251590052</v>
       </c>
       <c r="F19">
-        <v>0.8463782437338074</v>
+        <v>0.8465542093743578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024508788548255</v>
+        <v>1.024533917357499</v>
       </c>
       <c r="J19">
-        <v>0.8745895795283662</v>
+        <v>0.8748150407539268</v>
       </c>
       <c r="K19">
-        <v>0.9878851736461599</v>
+        <v>0.9879339881549688</v>
       </c>
       <c r="L19">
-        <v>0.8859960110627658</v>
+        <v>0.8861975202596939</v>
       </c>
       <c r="M19">
-        <v>0.8634229241739279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8635941903590344</v>
+      </c>
+      <c r="N19">
+        <v>0.9168203301349757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8307211547535244</v>
+        <v>0.8309832298947808</v>
       </c>
       <c r="D20">
-        <v>0.969260742425652</v>
+        <v>0.9693159401572442</v>
       </c>
       <c r="E20">
-        <v>0.8619039884680352</v>
+        <v>0.862128733855747</v>
       </c>
       <c r="F20">
-        <v>0.8359025712148641</v>
+        <v>0.8360968083166249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022444336754588</v>
+        <v>1.022472212994255</v>
       </c>
       <c r="J20">
-        <v>0.8667996336200796</v>
+        <v>0.8670444382593823</v>
       </c>
       <c r="K20">
-        <v>0.9838665331734103</v>
+        <v>0.9839206781795322</v>
       </c>
       <c r="L20">
-        <v>0.8789041048713254</v>
+        <v>0.8791229924608638</v>
       </c>
       <c r="M20">
-        <v>0.85360950894415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8537982429064592</v>
+      </c>
+      <c r="N20">
+        <v>0.911502091106735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7954155649010145</v>
+        <v>0.79578154507729</v>
       </c>
       <c r="D21">
-        <v>0.95270169773436</v>
+        <v>0.9527848586961783</v>
       </c>
       <c r="E21">
-        <v>0.832689731752141</v>
+        <v>0.8330003248573805</v>
       </c>
       <c r="F21">
-        <v>0.7954918211402755</v>
+        <v>0.7957782298151195</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014599119701883</v>
+        <v>1.014641032908697</v>
       </c>
       <c r="J21">
-        <v>0.836908176327664</v>
+        <v>0.8372442622949217</v>
       </c>
       <c r="K21">
-        <v>0.9686381955050164</v>
+        <v>0.9687195667279599</v>
       </c>
       <c r="L21">
-        <v>0.8517263935731139</v>
+        <v>0.8520273667807625</v>
       </c>
       <c r="M21">
-        <v>0.8157568446450708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8160331807957497</v>
+      </c>
+      <c r="N21">
+        <v>0.8911151012006708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7660326718307102</v>
+        <v>0.7665265685509152</v>
       </c>
       <c r="D22">
-        <v>0.9394027088249446</v>
+        <v>0.9395234297570095</v>
       </c>
       <c r="E22">
-        <v>0.8085429687845882</v>
+        <v>0.8089577791977081</v>
       </c>
       <c r="F22">
-        <v>0.7616587628908146</v>
+        <v>0.762067176689763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008215494358494</v>
+        <v>1.008276244699881</v>
       </c>
       <c r="J22">
-        <v>0.8120600128393299</v>
+        <v>0.8125063431939659</v>
       </c>
       <c r="K22">
-        <v>0.9562784119749357</v>
+        <v>0.9563963105484056</v>
       </c>
       <c r="L22">
-        <v>0.8291776496788344</v>
+        <v>0.829577844069996</v>
       </c>
       <c r="M22">
-        <v>0.7840922056687156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7844835870507112</v>
+      </c>
+      <c r="N22">
+        <v>0.8742061049772405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7826233909772018</v>
+        <v>0.7830387010458606</v>
       </c>
       <c r="D23">
-        <v>0.9468528935299774</v>
+        <v>0.9469501924338453</v>
       </c>
       <c r="E23">
-        <v>0.8221573908314586</v>
+        <v>0.8225083289204047</v>
       </c>
       <c r="F23">
-        <v>0.7807818238149929</v>
+        <v>0.7811143185302334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011800317826308</v>
+        <v>1.011849323024913</v>
       </c>
       <c r="J23">
-        <v>0.8260856629249964</v>
+        <v>0.8264644784318128</v>
       </c>
       <c r="K23">
-        <v>0.9632169458393309</v>
+        <v>0.9633120699349054</v>
       </c>
       <c r="L23">
-        <v>0.8419004238305963</v>
+        <v>0.8422398481017012</v>
       </c>
       <c r="M23">
-        <v>0.8019850204917692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8023049105404472</v>
+      </c>
+      <c r="N23">
+        <v>0.8837448759926211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8312385070805023</v>
+        <v>0.8314993151074569</v>
       </c>
       <c r="D24">
-        <v>0.9695074605489125</v>
+        <v>0.96956233498418</v>
       </c>
       <c r="E24">
-        <v>0.8623335763486423</v>
+        <v>0.8625572660017985</v>
       </c>
       <c r="F24">
-        <v>0.8364923963733651</v>
+        <v>0.8366855561595785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02256028782611</v>
+        <v>1.022588001661425</v>
       </c>
       <c r="J24">
-        <v>0.8672377670616108</v>
+        <v>0.8674814449309776</v>
       </c>
       <c r="K24">
-        <v>0.9840920901717161</v>
+        <v>0.984145920104698</v>
       </c>
       <c r="L24">
-        <v>0.8793028779592819</v>
+        <v>0.8795207530356148</v>
       </c>
       <c r="M24">
-        <v>0.8541620627616435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8543497678949477</v>
+      </c>
+      <c r="N24">
+        <v>0.9118011623764984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8718725338907762</v>
+        <v>0.8720487940059625</v>
       </c>
       <c r="D25">
-        <v>0.9891771282607615</v>
+        <v>0.989211574586261</v>
       </c>
       <c r="E25">
-        <v>0.8961973526124564</v>
+        <v>0.8963500029761935</v>
       </c>
       <c r="F25">
-        <v>0.8825591528921777</v>
+        <v>0.8826833419386518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031703053786656</v>
+        <v>1.031720496208117</v>
       </c>
       <c r="J25">
-        <v>0.9016418401342526</v>
+        <v>0.901809347819481</v>
       </c>
       <c r="K25">
-        <v>1.001945811421687</v>
+        <v>1.001979707933982</v>
       </c>
       <c r="L25">
-        <v>0.9106535512634597</v>
+        <v>0.9108030522686148</v>
       </c>
       <c r="M25">
-        <v>0.8973025559832083</v>
+        <v>0.8974240766506407</v>
+      </c>
+      <c r="N25">
+        <v>0.9352985954839508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -417,159 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>0.9696699780673899</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9854351935971638</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9865451185770295</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>0.9927973100341041</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9971012391323458</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9981951393699945</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9942071960897954</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.9762733263671682</v>
+      </c>
+      <c r="E3">
+        <v>0.9912238284543032</v>
+      </c>
+      <c r="F3">
+        <v>0.9931008781123711</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9974323881816308</v>
+      </c>
+      <c r="L3">
+        <v>1.001970247450316</v>
+      </c>
+      <c r="M3">
+        <v>1.003822802300925</v>
+      </c>
+      <c r="N3">
+        <v>0.9988488565799426</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.9804308563658359</v>
+      </c>
+      <c r="E4">
+        <v>0.9948753413945479</v>
+      </c>
+      <c r="F4">
+        <v>0.9972373129875088</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.000348744349649</v>
+      </c>
+      <c r="L4">
+        <v>1.005036012583141</v>
+      </c>
+      <c r="M4">
+        <v>1.007369195967843</v>
+      </c>
+      <c r="N4">
+        <v>1.00176935430823</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.9821525471818838</v>
+      </c>
+      <c r="E5">
+        <v>0.9963890650223154</v>
+      </c>
+      <c r="F5">
+        <v>0.99895233418573</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.0015559268498</v>
+      </c>
+      <c r="L5">
+        <v>1.006305567336981</v>
+      </c>
+      <c r="M5">
+        <v>1.008838501981719</v>
+      </c>
+      <c r="N5">
+        <v>1.002978251145997</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.982440134551993</v>
+      </c>
+      <c r="E6">
+        <v>0.9966420047254992</v>
+      </c>
+      <c r="F6">
+        <v>0.9992389272713695</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.001757539661114</v>
+      </c>
+      <c r="L6">
+        <v>1.006517627797343</v>
+      </c>
+      <c r="M6">
+        <v>1.009083970658862</v>
+      </c>
+      <c r="N6">
+        <v>1.003180150270628</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.9804539625227742</v>
+      </c>
+      <c r="E7">
+        <v>0.9948956503519818</v>
+      </c>
+      <c r="F7">
+        <v>0.9972603215390069</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.000364947620684</v>
+      </c>
+      <c r="L7">
+        <v>1.005053050963264</v>
+      </c>
+      <c r="M7">
+        <v>1.007388912295901</v>
+      </c>
+      <c r="N7">
+        <v>1.001785580589769</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.971926396970429</v>
+      </c>
+      <c r="E8">
+        <v>0.9874117050539664</v>
+      </c>
+      <c r="F8">
+        <v>0.9887833688435687</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.9943815254703268</v>
+      </c>
+      <c r="L8">
+        <v>0.9987649366676556</v>
+      </c>
+      <c r="M8">
+        <v>1.0001174511716</v>
+      </c>
+      <c r="N8">
+        <v>0.9957936612936498</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.9559446090233841</v>
+      </c>
+      <c r="E9">
+        <v>0.9734460404117524</v>
+      </c>
+      <c r="F9">
+        <v>0.9729712455718524</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9831550979781936</v>
+      </c>
+      <c r="L9">
+        <v>0.9869851483119253</v>
+      </c>
+      <c r="M9">
+        <v>0.9865186154893665</v>
+      </c>
+      <c r="N9">
+        <v>0.9845512909867885</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.9445352670326962</v>
+      </c>
+      <c r="E10">
+        <v>0.9635236873254994</v>
+      </c>
+      <c r="F10">
+        <v>0.961739038183606</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9751364464460606</v>
+      </c>
+      <c r="L10">
+        <v>0.9785843171802239</v>
+      </c>
+      <c r="M10">
+        <v>0.9768352648021933</v>
+      </c>
+      <c r="N10">
+        <v>0.9765212520497277</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9393867048017516</v>
+      </c>
+      <c r="E11">
+        <v>0.9590591648064881</v>
+      </c>
+      <c r="F11">
+        <v>0.9566850137326456</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9715181138350973</v>
+      </c>
+      <c r="L11">
+        <v>0.9747967926556016</v>
+      </c>
+      <c r="M11">
+        <v>0.9724727810697744</v>
+      </c>
+      <c r="N11">
+        <v>0.9728977809914282</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9374401672417778</v>
+      </c>
+      <c r="E12">
+        <v>0.9573733632940504</v>
+      </c>
+      <c r="F12">
+        <v>0.9547765371059671</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9701502469976464</v>
+      </c>
+      <c r="L12">
+        <v>0.9733654706982211</v>
+      </c>
+      <c r="M12">
+        <v>0.9708246484830206</v>
+      </c>
+      <c r="N12">
+        <v>0.9715279716261717</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9378593002460648</v>
+      </c>
+      <c r="E13">
+        <v>0.9577362556097091</v>
+      </c>
+      <c r="F13">
+        <v>0.9551873679413322</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.9704447715298821</v>
+      </c>
+      <c r="L13">
+        <v>0.9736736350699283</v>
+      </c>
+      <c r="M13">
+        <v>0.971179471495288</v>
+      </c>
+      <c r="N13">
+        <v>0.9718229144170256</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.9392265173911881</v>
+      </c>
+      <c r="E14">
+        <v>0.9589203903196738</v>
+      </c>
+      <c r="F14">
+        <v>0.9565279106931118</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9714055439611926</v>
+      </c>
+      <c r="L14">
+        <v>0.9746789903252101</v>
+      </c>
+      <c r="M14">
+        <v>0.972337125154908</v>
+      </c>
+      <c r="N14">
+        <v>0.9727850512553906</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.9400642910774749</v>
+      </c>
+      <c r="E15">
+        <v>0.9596462624169918</v>
+      </c>
+      <c r="F15">
+        <v>0.9573496482925079</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.9719942858358546</v>
+      </c>
+      <c r="L15">
+        <v>0.9752951186801017</v>
+      </c>
+      <c r="M15">
+        <v>0.9730466500534506</v>
+      </c>
+      <c r="N15">
+        <v>0.9733746292110445</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9448723375458798</v>
+      </c>
+      <c r="E16">
+        <v>0.9638162575846037</v>
+      </c>
+      <c r="F16">
+        <v>0.9620702321611819</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.975373346537225</v>
+      </c>
+      <c r="L16">
+        <v>0.9788323635066934</v>
+      </c>
+      <c r="M16">
+        <v>0.9771210313184815</v>
+      </c>
+      <c r="N16">
+        <v>0.9767584885661946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9478306417321072</v>
+      </c>
+      <c r="E17">
+        <v>0.9663854941539594</v>
+      </c>
+      <c r="F17">
+        <v>0.964978624852201</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.9774525326330228</v>
+      </c>
+      <c r="L17">
+        <v>0.9810097464633781</v>
+      </c>
+      <c r="M17">
+        <v>0.9796298938512278</v>
+      </c>
+      <c r="N17">
+        <v>0.9788406273447341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.9495362877451491</v>
+      </c>
+      <c r="E18">
+        <v>0.967868032921088</v>
+      </c>
+      <c r="F18">
+        <v>0.9666568595532719</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9786513192533035</v>
+      </c>
+      <c r="L18">
+        <v>0.9822654559612203</v>
+      </c>
+      <c r="M18">
+        <v>0.9810770786392717</v>
+      </c>
+      <c r="N18">
+        <v>0.9800411163795184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.9501145774253004</v>
+      </c>
+      <c r="E19">
+        <v>0.9683708808154985</v>
+      </c>
+      <c r="F19">
+        <v>0.9672260837796616</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9790577592334664</v>
+      </c>
+      <c r="L19">
+        <v>0.9826912467026594</v>
+      </c>
+      <c r="M19">
+        <v>0.9815678485946832</v>
+      </c>
+      <c r="N19">
+        <v>0.9804481335510725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9475153197331744</v>
+      </c>
+      <c r="E20">
+        <v>0.9661115151297455</v>
+      </c>
+      <c r="F20">
+        <v>0.9646684801205176</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9772309133163163</v>
+      </c>
+      <c r="L20">
+        <v>0.9807776285025039</v>
+      </c>
+      <c r="M20">
+        <v>0.9793624068464686</v>
+      </c>
+      <c r="N20">
+        <v>0.978618693303178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9388248728501459</v>
+      </c>
+      <c r="E21">
+        <v>0.9585724699427982</v>
+      </c>
+      <c r="F21">
+        <v>0.956134037463519</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9711232953331477</v>
+      </c>
+      <c r="L21">
+        <v>0.9743836304504007</v>
+      </c>
+      <c r="M21">
+        <v>0.9719970093496465</v>
+      </c>
+      <c r="N21">
+        <v>0.9725024018019198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.9331616882943196</v>
+      </c>
+      <c r="E22">
+        <v>0.9536720810642071</v>
+      </c>
+      <c r="F22">
+        <v>0.9505861411277551</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9671440532038642</v>
+      </c>
+      <c r="L22">
+        <v>0.9702207718580957</v>
+      </c>
+      <c r="M22">
+        <v>0.9672044427999795</v>
+      </c>
+      <c r="N22">
+        <v>0.9685175086923873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.9361837723563774</v>
+      </c>
+      <c r="E23">
+        <v>0.9562858796420246</v>
+      </c>
+      <c r="F23">
+        <v>0.9535453790344369</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9692674070650068</v>
+      </c>
+      <c r="L23">
+        <v>0.9724418206861091</v>
+      </c>
+      <c r="M23">
+        <v>0.9697612171678539</v>
+      </c>
+      <c r="N23">
+        <v>0.9706438779595644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.9476578614044581</v>
+      </c>
+      <c r="E24">
+        <v>0.9662353639027155</v>
+      </c>
+      <c r="F24">
+        <v>0.9648086771702007</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9773310965695953</v>
+      </c>
+      <c r="L24">
+        <v>0.9808825567302994</v>
+      </c>
+      <c r="M24">
+        <v>0.9794833225831202</v>
+      </c>
+      <c r="N24">
+        <v>0.9787190188281678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9602003410652746</v>
+      </c>
+      <c r="E25">
+        <v>0.9771572819130709</v>
+      </c>
+      <c r="F25">
+        <v>0.977172633854244</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.9861455907071073</v>
+      </c>
+      <c r="L25">
+        <v>0.9901208636039754</v>
+      </c>
+      <c r="M25">
+        <v>0.9901359626837641</v>
+      </c>
+      <c r="N25">
+        <v>0.9875460305583917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9696699780673899</v>
+        <v>1.026490916865734</v>
       </c>
       <c r="E2">
-        <v>0.9854351935971638</v>
+        <v>1.035281354641554</v>
       </c>
       <c r="F2">
-        <v>0.9865451185770295</v>
+        <v>1.043026249814855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9927973100341041</v>
+        <v>1.031654064059758</v>
       </c>
       <c r="L2">
-        <v>0.9971012391323458</v>
+        <v>1.03807840888099</v>
       </c>
       <c r="M2">
-        <v>0.9981951393699945</v>
+        <v>1.045801277101354</v>
       </c>
       <c r="N2">
-        <v>0.9942071960897954</v>
+        <v>1.033119131163119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9762733263671682</v>
+        <v>1.027842156397847</v>
       </c>
       <c r="E3">
-        <v>0.9912238284543032</v>
+        <v>1.036523650962609</v>
       </c>
       <c r="F3">
-        <v>0.9931008781123711</v>
+        <v>1.044448464980237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9974323881816308</v>
+        <v>1.032643018763664</v>
       </c>
       <c r="L3">
-        <v>1.001970247450316</v>
+        <v>1.039128916684576</v>
       </c>
       <c r="M3">
-        <v>1.003822802300925</v>
+        <v>1.047032844707646</v>
       </c>
       <c r="N3">
-        <v>0.9988488565799426</v>
+        <v>1.034109490296118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9804308563658359</v>
+        <v>1.028716173043294</v>
       </c>
       <c r="E4">
-        <v>0.9948753413945479</v>
+        <v>1.037327489195902</v>
       </c>
       <c r="F4">
-        <v>0.9972373129875088</v>
+        <v>1.045369012804246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.000348744349649</v>
+        <v>1.033282201577143</v>
       </c>
       <c r="L4">
-        <v>1.005036012583141</v>
+        <v>1.039808101438637</v>
       </c>
       <c r="M4">
-        <v>1.007369195967843</v>
+        <v>1.047829512859633</v>
       </c>
       <c r="N4">
-        <v>1.00176935430823</v>
+        <v>1.034749580822508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9821525471818838</v>
+        <v>1.029083536151651</v>
       </c>
       <c r="E5">
-        <v>0.9963890650223154</v>
+        <v>1.037665423616462</v>
       </c>
       <c r="F5">
-        <v>0.99895233418573</v>
+        <v>1.045756082122717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.0015559268498</v>
+        <v>1.033550740576032</v>
       </c>
       <c r="L5">
-        <v>1.006305567336981</v>
+        <v>1.040093498731203</v>
       </c>
       <c r="M5">
-        <v>1.008838501981719</v>
+        <v>1.048164378682872</v>
       </c>
       <c r="N5">
-        <v>1.002978251145997</v>
+        <v>1.035018501177577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.982440134551993</v>
+        <v>1.029145213854658</v>
       </c>
       <c r="E6">
-        <v>0.9966420047254992</v>
+        <v>1.03772216443854</v>
       </c>
       <c r="F6">
-        <v>0.9992389272713695</v>
+        <v>1.045821077047702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001757539661114</v>
+        <v>1.033595819370691</v>
       </c>
       <c r="L6">
-        <v>1.006517627797343</v>
+        <v>1.040141410541831</v>
       </c>
       <c r="M6">
-        <v>1.009083970658862</v>
+        <v>1.048220601097659</v>
       </c>
       <c r="N6">
-        <v>1.003180150270628</v>
+        <v>1.035063643989295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9804539625227742</v>
+        <v>1.028721082050322</v>
       </c>
       <c r="E7">
-        <v>0.9948956503519818</v>
+        <v>1.037332004684756</v>
       </c>
       <c r="F7">
-        <v>0.9972603215390069</v>
+        <v>1.045374184559297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.000364947620684</v>
+        <v>1.033285790486255</v>
       </c>
       <c r="L7">
-        <v>1.005053050963264</v>
+        <v>1.039811915446028</v>
       </c>
       <c r="M7">
-        <v>1.007388912295901</v>
+        <v>1.047833987558758</v>
       </c>
       <c r="N7">
-        <v>1.001785580589769</v>
+        <v>1.034753174828282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.971926396970429</v>
+        <v>1.026947644726116</v>
       </c>
       <c r="E8">
-        <v>0.9874117050539664</v>
+        <v>1.03570119870601</v>
       </c>
       <c r="F8">
-        <v>0.9887833688435687</v>
+        <v>1.043506838681758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9943815254703268</v>
+        <v>1.031988440333347</v>
       </c>
       <c r="L8">
-        <v>0.9987649366676556</v>
+        <v>1.038433551539637</v>
       </c>
       <c r="M8">
-        <v>1.0001174511716</v>
+        <v>1.046217542688354</v>
       </c>
       <c r="N8">
-        <v>0.9957936612936498</v>
+        <v>1.033453982289349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9559446090233841</v>
+        <v>1.023819926531252</v>
       </c>
       <c r="E9">
-        <v>0.9734460404117524</v>
+        <v>1.032827278913259</v>
       </c>
       <c r="F9">
-        <v>0.9729712455718524</v>
+        <v>1.04021829376622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9831550979781936</v>
+        <v>1.029696565096051</v>
       </c>
       <c r="L9">
-        <v>0.9869851483119253</v>
+        <v>1.036000241370181</v>
       </c>
       <c r="M9">
-        <v>0.9865186154893665</v>
+        <v>1.04336717205273</v>
       </c>
       <c r="N9">
-        <v>0.9845512909867885</v>
+        <v>1.031158852326335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9445352670326962</v>
+        <v>1.021732687406676</v>
       </c>
       <c r="E10">
-        <v>0.9635236873254994</v>
+        <v>1.030910964937144</v>
       </c>
       <c r="F10">
-        <v>0.961739038183606</v>
+        <v>1.038026988218159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9751364464460606</v>
+        <v>1.028164574574658</v>
       </c>
       <c r="L10">
-        <v>0.9785843171802239</v>
+        <v>1.034374845117875</v>
       </c>
       <c r="M10">
-        <v>0.9768352648021933</v>
+        <v>1.041465360200861</v>
       </c>
       <c r="N10">
-        <v>0.9765212520497277</v>
+        <v>1.029624686202679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9393867048017516</v>
+        <v>1.020828330211808</v>
       </c>
       <c r="E11">
-        <v>0.9590591648064881</v>
+        <v>1.030081045017767</v>
       </c>
       <c r="F11">
-        <v>0.9566850137326456</v>
+        <v>1.037078321730686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9715181138350973</v>
+        <v>1.027500197155752</v>
       </c>
       <c r="L11">
-        <v>0.9747967926556016</v>
+        <v>1.033670230717229</v>
       </c>
       <c r="M11">
-        <v>0.9724727810697744</v>
+        <v>1.040641432365732</v>
       </c>
       <c r="N11">
-        <v>0.9728977809914282</v>
+        <v>1.028959365291633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9374401672417778</v>
+        <v>1.020492320724776</v>
       </c>
       <c r="E12">
-        <v>0.9573733632940504</v>
+        <v>1.029772750100411</v>
       </c>
       <c r="F12">
-        <v>0.9547765371059671</v>
+        <v>1.036725967244162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9701502469976464</v>
+        <v>1.027253261528089</v>
       </c>
       <c r="L12">
-        <v>0.9733654706982211</v>
+        <v>1.033408380493541</v>
       </c>
       <c r="M12">
-        <v>0.9708246484830206</v>
+        <v>1.040335319692193</v>
       </c>
       <c r="N12">
-        <v>0.9715279716261717</v>
+        <v>1.028712078987055</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9378593002460648</v>
+        <v>1.020564400104801</v>
       </c>
       <c r="E13">
-        <v>0.9577362556097091</v>
+        <v>1.029838881637244</v>
       </c>
       <c r="F13">
-        <v>0.9551873679413322</v>
+        <v>1.036801547541352</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9704447715298821</v>
+        <v>1.027306237190017</v>
       </c>
       <c r="L13">
-        <v>0.9736736350699283</v>
+        <v>1.033464553975997</v>
       </c>
       <c r="M13">
-        <v>0.971179471495288</v>
+        <v>1.040400985102833</v>
       </c>
       <c r="N13">
-        <v>0.9718229144170256</v>
+        <v>1.028765129880499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9392265173911881</v>
+        <v>1.020800557450149</v>
       </c>
       <c r="E14">
-        <v>0.9589203903196738</v>
+        <v>1.030055561812355</v>
       </c>
       <c r="F14">
-        <v>0.9565279106931118</v>
+        <v>1.037049195569476</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9714055439611926</v>
+        <v>1.027479788589223</v>
       </c>
       <c r="L14">
-        <v>0.9746789903252101</v>
+        <v>1.033648588669356</v>
       </c>
       <c r="M14">
-        <v>0.972337125154908</v>
+        <v>1.040616130434051</v>
       </c>
       <c r="N14">
-        <v>0.9727850512553906</v>
+        <v>1.028938927742598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9400642910774749</v>
+        <v>1.020946049567315</v>
       </c>
       <c r="E15">
-        <v>0.9596462624169918</v>
+        <v>1.030189062087951</v>
       </c>
       <c r="F15">
-        <v>0.9573496482925079</v>
+        <v>1.037201782521286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9719942858358546</v>
+        <v>1.027586698515009</v>
       </c>
       <c r="L15">
-        <v>0.9752951186801017</v>
+        <v>1.033761961831765</v>
       </c>
       <c r="M15">
-        <v>0.9730466500534506</v>
+        <v>1.040748679270769</v>
       </c>
       <c r="N15">
-        <v>0.9733746292110445</v>
+        <v>1.029045989492742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9448723375458798</v>
+        <v>1.021792694161462</v>
       </c>
       <c r="E16">
-        <v>0.9638162575846037</v>
+        <v>1.030966040613384</v>
       </c>
       <c r="F16">
-        <v>0.9620702321611819</v>
+        <v>1.038089951519511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.975373346537225</v>
+        <v>1.028208645405253</v>
       </c>
       <c r="L16">
-        <v>0.9788323635066934</v>
+        <v>1.034421590726031</v>
       </c>
       <c r="M16">
-        <v>0.9771210313184815</v>
+        <v>1.041520032120773</v>
       </c>
       <c r="N16">
-        <v>0.9767584885661946</v>
+        <v>1.029668819618909</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9478306417321072</v>
+        <v>1.022323615771932</v>
       </c>
       <c r="E17">
-        <v>0.9663854941539594</v>
+        <v>1.031453377401598</v>
       </c>
       <c r="F17">
-        <v>0.964978624852201</v>
+        <v>1.038647121976613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9774525326330228</v>
+        <v>1.028598501782262</v>
       </c>
       <c r="L17">
-        <v>0.9810097464633781</v>
+        <v>1.034835139739721</v>
       </c>
       <c r="M17">
-        <v>0.9796298938512278</v>
+        <v>1.042003762906311</v>
       </c>
       <c r="N17">
-        <v>0.9788406273447341</v>
+        <v>1.03005922963669</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9495362877451491</v>
+        <v>1.022633238848841</v>
       </c>
       <c r="E18">
-        <v>0.967868032921088</v>
+        <v>1.031737619160359</v>
       </c>
       <c r="F18">
-        <v>0.9666568595532719</v>
+        <v>1.038972128104003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9786513192533035</v>
+        <v>1.028825800691129</v>
       </c>
       <c r="L18">
-        <v>0.9822654559612203</v>
+        <v>1.035076278268112</v>
       </c>
       <c r="M18">
-        <v>0.9810770786392717</v>
+        <v>1.042285873631966</v>
       </c>
       <c r="N18">
-        <v>0.9800411163795184</v>
+        <v>1.03028685133608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9501145774253004</v>
+        <v>1.02273880323527</v>
       </c>
       <c r="E19">
-        <v>0.9683708808154985</v>
+        <v>1.031834536082859</v>
       </c>
       <c r="F19">
-        <v>0.9672260837796616</v>
+        <v>1.039082950004158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9790577592334664</v>
+        <v>1.028903287282061</v>
       </c>
       <c r="L19">
-        <v>0.9826912467026594</v>
+        <v>1.035158487224475</v>
       </c>
       <c r="M19">
-        <v>0.9815678485946832</v>
+        <v>1.042382059235768</v>
       </c>
       <c r="N19">
-        <v>0.9804481335510725</v>
+        <v>1.030364447966858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9475153197331744</v>
+        <v>1.022266658587826</v>
       </c>
       <c r="E20">
-        <v>0.9661115151297455</v>
+        <v>1.031401092208853</v>
       </c>
       <c r="F20">
-        <v>0.9646684801205176</v>
+        <v>1.03858734103306</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9772309133163163</v>
+        <v>1.028556684018271</v>
       </c>
       <c r="L20">
-        <v>0.9807776285025039</v>
+        <v>1.034790777901109</v>
       </c>
       <c r="M20">
-        <v>0.9793624068464686</v>
+        <v>1.041951867472193</v>
       </c>
       <c r="N20">
-        <v>0.978618693303178</v>
+        <v>1.030017352486678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9388248728501459</v>
+        <v>1.020731017553108</v>
       </c>
       <c r="E21">
-        <v>0.9585724699427982</v>
+        <v>1.029991755644657</v>
       </c>
       <c r="F21">
-        <v>0.956134037463519</v>
+        <v>1.036976268817576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9711232953331477</v>
+        <v>1.02742868637165</v>
       </c>
       <c r="L21">
-        <v>0.9743836304504007</v>
+        <v>1.033594398522078</v>
       </c>
       <c r="M21">
-        <v>0.9719970093496465</v>
+        <v>1.040552777442377</v>
       </c>
       <c r="N21">
-        <v>0.9725024018019198</v>
+        <v>1.028887752954015</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9331616882943196</v>
+        <v>1.019764970093796</v>
       </c>
       <c r="E22">
-        <v>0.9536720810642071</v>
+        <v>1.029105498996335</v>
       </c>
       <c r="F22">
-        <v>0.9505861411277551</v>
+        <v>1.035963451356113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9671440532038642</v>
+        <v>1.026718563481539</v>
       </c>
       <c r="L22">
-        <v>0.9702207718580957</v>
+        <v>1.032841461854166</v>
       </c>
       <c r="M22">
-        <v>0.9672044427999795</v>
+        <v>1.039672711468771</v>
       </c>
       <c r="N22">
-        <v>0.9685175086923873</v>
+        <v>1.028176621607948</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9361837723563774</v>
+        <v>1.020277142110416</v>
       </c>
       <c r="E23">
-        <v>0.9562858796420246</v>
+        <v>1.029575336107435</v>
       </c>
       <c r="F23">
-        <v>0.9535453790344369</v>
+        <v>1.036500354652359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9692674070650068</v>
+        <v>1.027095100184893</v>
       </c>
       <c r="L23">
-        <v>0.9724418206861091</v>
+        <v>1.033240677867889</v>
       </c>
       <c r="M23">
-        <v>0.9697612171678539</v>
+        <v>1.040139290747095</v>
       </c>
       <c r="N23">
-        <v>0.9706438779595644</v>
+        <v>1.02855369303661</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9476578614044581</v>
+        <v>1.022292395255737</v>
       </c>
       <c r="E24">
-        <v>0.9662353639027155</v>
+        <v>1.031424717678506</v>
       </c>
       <c r="F24">
-        <v>0.9648086771702007</v>
+        <v>1.038614353412235</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9773310965695953</v>
+        <v>1.028575579967525</v>
       </c>
       <c r="L24">
-        <v>0.9808825567302994</v>
+        <v>1.034810823346056</v>
       </c>
       <c r="M24">
-        <v>0.9794833225831202</v>
+        <v>1.041975316912289</v>
       </c>
       <c r="N24">
-        <v>0.9787190188281678</v>
+        <v>1.030036275270347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9602003410652746</v>
+        <v>1.024628864977666</v>
       </c>
       <c r="E25">
-        <v>0.9771572819130709</v>
+        <v>1.033570305248744</v>
       </c>
       <c r="F25">
-        <v>0.977172633854244</v>
+        <v>1.041068256048337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9861455907071073</v>
+        <v>1.030289773934296</v>
       </c>
       <c r="L25">
-        <v>0.9901208636039754</v>
+        <v>1.036629858356136</v>
       </c>
       <c r="M25">
-        <v>0.9901359626837641</v>
+        <v>1.044104320226558</v>
       </c>
       <c r="N25">
-        <v>0.9875460305583917</v>
+        <v>1.031752903589172</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.026490916865734</v>
+        <v>0.96966997806739</v>
       </c>
       <c r="E2">
-        <v>1.035281354641554</v>
+        <v>0.9854351935971641</v>
       </c>
       <c r="F2">
-        <v>1.043026249814855</v>
+        <v>0.9865451185770295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.031654064059758</v>
+        <v>0.9927973100341045</v>
       </c>
       <c r="L2">
-        <v>1.03807840888099</v>
+        <v>0.9971012391323461</v>
       </c>
       <c r="M2">
-        <v>1.045801277101354</v>
+        <v>0.9981951393699945</v>
       </c>
       <c r="N2">
-        <v>1.033119131163119</v>
+        <v>0.9942071960897959</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.027842156397847</v>
+        <v>0.9762733263671682</v>
       </c>
       <c r="E3">
-        <v>1.036523650962609</v>
+        <v>0.9912238284543029</v>
       </c>
       <c r="F3">
-        <v>1.044448464980237</v>
+        <v>0.9931008781123708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.032643018763664</v>
+        <v>0.9974323881816305</v>
       </c>
       <c r="L3">
-        <v>1.039128916684576</v>
+        <v>1.001970247450316</v>
       </c>
       <c r="M3">
-        <v>1.047032844707646</v>
+        <v>1.003822802300925</v>
       </c>
       <c r="N3">
-        <v>1.034109490296118</v>
+        <v>0.9988488565799424</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.028716173043294</v>
+        <v>0.980430856365836</v>
       </c>
       <c r="E4">
-        <v>1.037327489195902</v>
+        <v>0.994875341394548</v>
       </c>
       <c r="F4">
-        <v>1.045369012804246</v>
+        <v>0.997237312987509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.033282201577143</v>
+        <v>1.000348744349649</v>
       </c>
       <c r="L4">
-        <v>1.039808101438637</v>
+        <v>1.005036012583141</v>
       </c>
       <c r="M4">
-        <v>1.047829512859633</v>
+        <v>1.007369195967843</v>
       </c>
       <c r="N4">
-        <v>1.034749580822508</v>
+        <v>1.00176935430823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.029083536151651</v>
+        <v>0.9821525471818835</v>
       </c>
       <c r="E5">
-        <v>1.037665423616462</v>
+        <v>0.9963890650223149</v>
       </c>
       <c r="F5">
-        <v>1.045756082122717</v>
+        <v>0.9989523341857297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.033550740576032</v>
+        <v>1.001555926849799</v>
       </c>
       <c r="L5">
-        <v>1.040093498731203</v>
+        <v>1.00630556733698</v>
       </c>
       <c r="M5">
-        <v>1.048164378682872</v>
+        <v>1.008838501981718</v>
       </c>
       <c r="N5">
-        <v>1.035018501177577</v>
+        <v>1.002978251145997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.029145213854658</v>
+        <v>0.9824401345519932</v>
       </c>
       <c r="E6">
-        <v>1.03772216443854</v>
+        <v>0.9966420047254995</v>
       </c>
       <c r="F6">
-        <v>1.045821077047702</v>
+        <v>0.9992389272713696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.033595819370691</v>
+        <v>1.001757539661114</v>
       </c>
       <c r="L6">
-        <v>1.040141410541831</v>
+        <v>1.006517627797344</v>
       </c>
       <c r="M6">
-        <v>1.048220601097659</v>
+        <v>1.009083970658862</v>
       </c>
       <c r="N6">
-        <v>1.035063643989295</v>
+        <v>1.003180150270628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.028721082050322</v>
+        <v>0.9804539625227746</v>
       </c>
       <c r="E7">
-        <v>1.037332004684756</v>
+        <v>0.9948956503519822</v>
       </c>
       <c r="F7">
-        <v>1.045374184559297</v>
+        <v>0.9972603215390072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.033285790486255</v>
+        <v>1.000364947620685</v>
       </c>
       <c r="L7">
-        <v>1.039811915446028</v>
+        <v>1.005053050963265</v>
       </c>
       <c r="M7">
-        <v>1.047833987558758</v>
+        <v>1.007388912295901</v>
       </c>
       <c r="N7">
-        <v>1.034753174828282</v>
+        <v>1.001785580589769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.026947644726116</v>
+        <v>0.9719263969704289</v>
       </c>
       <c r="E8">
-        <v>1.03570119870601</v>
+        <v>0.9874117050539658</v>
       </c>
       <c r="F8">
-        <v>1.043506838681758</v>
+        <v>0.9887833688435682</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.031988440333347</v>
+        <v>0.9943815254703267</v>
       </c>
       <c r="L8">
-        <v>1.038433551539637</v>
+        <v>0.9987649366676553</v>
       </c>
       <c r="M8">
-        <v>1.046217542688354</v>
+        <v>1.0001174511716</v>
       </c>
       <c r="N8">
-        <v>1.033453982289349</v>
+        <v>0.9957936612936495</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.023819926531252</v>
+        <v>0.955944609023385</v>
       </c>
       <c r="E9">
-        <v>1.032827278913259</v>
+        <v>0.9734460404117531</v>
       </c>
       <c r="F9">
-        <v>1.04021829376622</v>
+        <v>0.9729712455718529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.029696565096051</v>
+        <v>0.9831550979781944</v>
       </c>
       <c r="L9">
-        <v>1.036000241370181</v>
+        <v>0.986985148311926</v>
       </c>
       <c r="M9">
-        <v>1.04336717205273</v>
+        <v>0.9865186154893669</v>
       </c>
       <c r="N9">
-        <v>1.031158852326335</v>
+        <v>0.9845512909867894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.021732687406676</v>
+        <v>0.9445352670326965</v>
       </c>
       <c r="E10">
-        <v>1.030910964937144</v>
+        <v>0.9635236873254998</v>
       </c>
       <c r="F10">
-        <v>1.038026988218159</v>
+        <v>0.9617390381836062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.028164574574658</v>
+        <v>0.9751364464460607</v>
       </c>
       <c r="L10">
-        <v>1.034374845117875</v>
+        <v>0.9785843171802241</v>
       </c>
       <c r="M10">
-        <v>1.041465360200861</v>
+        <v>0.9768352648021934</v>
       </c>
       <c r="N10">
-        <v>1.029624686202679</v>
+        <v>0.9765212520497278</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.020828330211808</v>
+        <v>0.9393867048017515</v>
       </c>
       <c r="E11">
-        <v>1.030081045017767</v>
+        <v>0.9590591648064876</v>
       </c>
       <c r="F11">
-        <v>1.037078321730686</v>
+        <v>0.9566850137326456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.027500197155752</v>
+        <v>0.9715181138350971</v>
       </c>
       <c r="L11">
-        <v>1.033670230717229</v>
+        <v>0.9747967926556013</v>
       </c>
       <c r="M11">
-        <v>1.040641432365732</v>
+        <v>0.9724727810697743</v>
       </c>
       <c r="N11">
-        <v>1.028959365291633</v>
+        <v>0.9728977809914281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.020492320724776</v>
+        <v>0.9374401672417781</v>
       </c>
       <c r="E12">
-        <v>1.029772750100411</v>
+        <v>0.9573733632940508</v>
       </c>
       <c r="F12">
-        <v>1.036725967244162</v>
+        <v>0.9547765371059674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.027253261528089</v>
+        <v>0.9701502469976467</v>
       </c>
       <c r="L12">
-        <v>1.033408380493541</v>
+        <v>0.9733654706982215</v>
       </c>
       <c r="M12">
-        <v>1.040335319692193</v>
+        <v>0.9708246484830209</v>
       </c>
       <c r="N12">
-        <v>1.028712078987055</v>
+        <v>0.9715279716261721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.020564400104801</v>
+        <v>0.9378593002460645</v>
       </c>
       <c r="E13">
-        <v>1.029838881637244</v>
+        <v>0.9577362556097087</v>
       </c>
       <c r="F13">
-        <v>1.036801547541352</v>
+        <v>0.9551873679413317</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.027306237190017</v>
+        <v>0.9704447715298816</v>
       </c>
       <c r="L13">
-        <v>1.033464553975997</v>
+        <v>0.9736736350699278</v>
       </c>
       <c r="M13">
-        <v>1.040400985102833</v>
+        <v>0.9711794714952876</v>
       </c>
       <c r="N13">
-        <v>1.028765129880499</v>
+        <v>0.9718229144170251</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.020800557450149</v>
+        <v>0.9392265173911882</v>
       </c>
       <c r="E14">
-        <v>1.030055561812355</v>
+        <v>0.9589203903196737</v>
       </c>
       <c r="F14">
-        <v>1.037049195569476</v>
+        <v>0.9565279106931116</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.027479788589223</v>
+        <v>0.9714055439611926</v>
       </c>
       <c r="L14">
-        <v>1.033648588669356</v>
+        <v>0.9746789903252101</v>
       </c>
       <c r="M14">
-        <v>1.040616130434051</v>
+        <v>0.9723371251549079</v>
       </c>
       <c r="N14">
-        <v>1.028938927742598</v>
+        <v>0.9727850512553907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.020946049567315</v>
+        <v>0.9400642910774749</v>
       </c>
       <c r="E15">
-        <v>1.030189062087951</v>
+        <v>0.9596462624169921</v>
       </c>
       <c r="F15">
-        <v>1.037201782521286</v>
+        <v>0.9573496482925079</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.027586698515009</v>
+        <v>0.9719942858358547</v>
       </c>
       <c r="L15">
-        <v>1.033761961831765</v>
+        <v>0.9752951186801019</v>
       </c>
       <c r="M15">
-        <v>1.040748679270769</v>
+        <v>0.9730466500534507</v>
       </c>
       <c r="N15">
-        <v>1.029045989492742</v>
+        <v>0.9733746292110448</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.021792694161462</v>
+        <v>0.9448723375458793</v>
       </c>
       <c r="E16">
-        <v>1.030966040613384</v>
+        <v>0.9638162575846037</v>
       </c>
       <c r="F16">
-        <v>1.038089951519511</v>
+        <v>0.9620702321611815</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.028208645405253</v>
+        <v>0.9753733465372246</v>
       </c>
       <c r="L16">
-        <v>1.034421590726031</v>
+        <v>0.9788323635066932</v>
       </c>
       <c r="M16">
-        <v>1.041520032120773</v>
+        <v>0.9771210313184809</v>
       </c>
       <c r="N16">
-        <v>1.029668819618909</v>
+        <v>0.9767584885661945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.022323615771932</v>
+        <v>0.9478306417321076</v>
       </c>
       <c r="E17">
-        <v>1.031453377401598</v>
+        <v>0.9663854941539598</v>
       </c>
       <c r="F17">
-        <v>1.038647121976613</v>
+        <v>0.9649786248522016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.028598501782262</v>
+        <v>0.9774525326330233</v>
       </c>
       <c r="L17">
-        <v>1.034835139739721</v>
+        <v>0.9810097464633785</v>
       </c>
       <c r="M17">
-        <v>1.042003762906311</v>
+        <v>0.9796298938512283</v>
       </c>
       <c r="N17">
-        <v>1.03005922963669</v>
+        <v>0.9788406273447348</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.022633238848841</v>
+        <v>0.9495362877451488</v>
       </c>
       <c r="E18">
-        <v>1.031737619160359</v>
+        <v>0.9678680329210874</v>
       </c>
       <c r="F18">
-        <v>1.038972128104003</v>
+        <v>0.9666568595532714</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.028825800691129</v>
+        <v>0.9786513192533032</v>
       </c>
       <c r="L18">
-        <v>1.035076278268112</v>
+        <v>0.9822654559612196</v>
       </c>
       <c r="M18">
-        <v>1.042285873631966</v>
+        <v>0.9810770786392712</v>
       </c>
       <c r="N18">
-        <v>1.03028685133608</v>
+        <v>0.9800411163795181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.02273880323527</v>
+        <v>0.9501145774253011</v>
       </c>
       <c r="E19">
-        <v>1.031834536082859</v>
+        <v>0.9683708808154989</v>
       </c>
       <c r="F19">
-        <v>1.039082950004158</v>
+        <v>0.9672260837796625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.028903287282061</v>
+        <v>0.9790577592334671</v>
       </c>
       <c r="L19">
-        <v>1.035158487224475</v>
+        <v>0.9826912467026597</v>
       </c>
       <c r="M19">
-        <v>1.042382059235768</v>
+        <v>0.9815678485946838</v>
       </c>
       <c r="N19">
-        <v>1.030364447966858</v>
+        <v>0.9804481335510733</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.022266658587826</v>
+        <v>0.9475153197331742</v>
       </c>
       <c r="E20">
-        <v>1.031401092208853</v>
+        <v>0.9661115151297452</v>
       </c>
       <c r="F20">
-        <v>1.03858734103306</v>
+        <v>0.9646684801205178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.028556684018271</v>
+        <v>0.9772309133163162</v>
       </c>
       <c r="L20">
-        <v>1.034790777901109</v>
+        <v>0.9807776285025041</v>
       </c>
       <c r="M20">
-        <v>1.041951867472193</v>
+        <v>0.9793624068464686</v>
       </c>
       <c r="N20">
-        <v>1.030017352486678</v>
+        <v>0.9786186933031777</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.020731017553108</v>
+        <v>0.9388248728501459</v>
       </c>
       <c r="E21">
-        <v>1.029991755644657</v>
+        <v>0.9585724699427982</v>
       </c>
       <c r="F21">
-        <v>1.036976268817576</v>
+        <v>0.9561340374635187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.02742868637165</v>
+        <v>0.9711232953331478</v>
       </c>
       <c r="L21">
-        <v>1.033594398522078</v>
+        <v>0.9743836304504006</v>
       </c>
       <c r="M21">
-        <v>1.040552777442377</v>
+        <v>0.9719970093496464</v>
       </c>
       <c r="N21">
-        <v>1.028887752954015</v>
+        <v>0.9725024018019197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.019764970093796</v>
+        <v>0.9331616882943194</v>
       </c>
       <c r="E22">
-        <v>1.029105498996335</v>
+        <v>0.953672081064207</v>
       </c>
       <c r="F22">
-        <v>1.035963451356113</v>
+        <v>0.9505861411277549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.026718563481539</v>
+        <v>0.967144053203864</v>
       </c>
       <c r="L22">
-        <v>1.032841461854166</v>
+        <v>0.9702207718580957</v>
       </c>
       <c r="M22">
-        <v>1.039672711468771</v>
+        <v>0.9672044427999791</v>
       </c>
       <c r="N22">
-        <v>1.028176621607948</v>
+        <v>0.9685175086923872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.020277142110416</v>
+        <v>0.9361837723563774</v>
       </c>
       <c r="E23">
-        <v>1.029575336107435</v>
+        <v>0.9562858796420247</v>
       </c>
       <c r="F23">
-        <v>1.036500354652359</v>
+        <v>0.9535453790344373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.027095100184893</v>
+        <v>0.9692674070650069</v>
       </c>
       <c r="L23">
-        <v>1.033240677867889</v>
+        <v>0.9724418206861091</v>
       </c>
       <c r="M23">
-        <v>1.040139290747095</v>
+        <v>0.9697612171678542</v>
       </c>
       <c r="N23">
-        <v>1.02855369303661</v>
+        <v>0.9706438779595645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.022292395255737</v>
+        <v>0.947657861404458</v>
       </c>
       <c r="E24">
-        <v>1.031424717678506</v>
+        <v>0.9662353639027154</v>
       </c>
       <c r="F24">
-        <v>1.038614353412235</v>
+        <v>0.9648086771702012</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.028575579967525</v>
+        <v>0.9773310965695952</v>
       </c>
       <c r="L24">
-        <v>1.034810823346056</v>
+        <v>0.9808825567302993</v>
       </c>
       <c r="M24">
-        <v>1.041975316912289</v>
+        <v>0.9794833225831205</v>
       </c>
       <c r="N24">
-        <v>1.030036275270347</v>
+        <v>0.9787190188281676</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.024628864977666</v>
+        <v>0.9602003410652747</v>
       </c>
       <c r="E25">
-        <v>1.033570305248744</v>
+        <v>0.9771572819130708</v>
       </c>
       <c r="F25">
-        <v>1.041068256048337</v>
+        <v>0.9771726338542438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.030289773934296</v>
+        <v>0.9861455907071075</v>
       </c>
       <c r="L25">
-        <v>1.036629858356136</v>
+        <v>0.9901208636039753</v>
       </c>
       <c r="M25">
-        <v>1.044104320226558</v>
+        <v>0.990135962683764</v>
       </c>
       <c r="N25">
-        <v>1.031752903589172</v>
+        <v>0.9875460305583917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,701 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C2">
-        <v>0.96966997806739</v>
+        <v>0.9679554025917708</v>
+      </c>
+      <c r="D2">
+        <v>1.035712547953849</v>
       </c>
       <c r="E2">
-        <v>0.9854351935971641</v>
+        <v>0.9882651064511782</v>
       </c>
       <c r="F2">
-        <v>0.9865451185770295</v>
+        <v>1.00249470966071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.049337402236512</v>
+      </c>
       <c r="J2">
-        <v>0.9927973100341045</v>
+        <v>0.9911387102403078</v>
+      </c>
+      <c r="K2">
+        <v>1.04669579886789</v>
       </c>
       <c r="L2">
-        <v>0.9971012391323461</v>
+        <v>0.9998903846546686</v>
       </c>
       <c r="M2">
-        <v>0.9981951393699945</v>
+        <v>1.01391939828627</v>
       </c>
       <c r="N2">
-        <v>0.9942071960897959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9979810015246317</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.019588348550751</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044088245069363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9762733263671682</v>
+        <v>0.97595359002333</v>
+      </c>
+      <c r="D3">
+        <v>1.037067054470457</v>
       </c>
       <c r="E3">
-        <v>0.9912238284543029</v>
+        <v>0.9947848030074813</v>
       </c>
       <c r="F3">
-        <v>0.9931008781123708</v>
+        <v>1.00826346189129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.049487680647808</v>
+      </c>
       <c r="J3">
-        <v>0.9974323881816305</v>
+        <v>0.9971219636057086</v>
+      </c>
+      <c r="K3">
+        <v>1.047246644725429</v>
       </c>
       <c r="L3">
-        <v>1.001970247450316</v>
+        <v>1.005484851055006</v>
       </c>
       <c r="M3">
-        <v>1.003822802300925</v>
+        <v>1.018791690847492</v>
       </c>
       <c r="N3">
-        <v>0.9988488565799424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.000353397483171</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.023444546631811</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04447508416292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.980430856365836</v>
+        <v>0.9809535489046265</v>
+      </c>
+      <c r="D4">
+        <v>1.037931855449038</v>
       </c>
       <c r="E4">
-        <v>0.994875341394548</v>
+        <v>0.9988670385334504</v>
       </c>
       <c r="F4">
-        <v>0.997237312987509</v>
+        <v>1.011883198039927</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.049572111496015</v>
+      </c>
       <c r="J4">
-        <v>1.000348744349649</v>
+        <v>1.000857340262731</v>
+      </c>
+      <c r="K4">
+        <v>1.047593055951436</v>
       </c>
       <c r="L4">
-        <v>1.005036012583141</v>
+        <v>1.00897915666232</v>
       </c>
       <c r="M4">
-        <v>1.007369195967843</v>
+        <v>1.021840288123045</v>
       </c>
       <c r="N4">
-        <v>1.00176935430823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.001829685375645</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.025857361601493</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044720909765007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9821525471818835</v>
+        <v>0.9830161095350869</v>
+      </c>
+      <c r="D5">
+        <v>1.038297596703329</v>
       </c>
       <c r="E5">
-        <v>0.9963890650223149</v>
+        <v>1.000552450083017</v>
       </c>
       <c r="F5">
-        <v>0.9989523341857297</v>
+        <v>1.013379465408135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.049605985669269</v>
+      </c>
       <c r="J5">
-        <v>1.001555926849799</v>
+        <v>1.002396957350113</v>
+      </c>
+      <c r="K5">
+        <v>1.047741193554237</v>
       </c>
       <c r="L5">
-        <v>1.00630556733698</v>
+        <v>1.010419779150407</v>
       </c>
       <c r="M5">
-        <v>1.008838501981718</v>
+        <v>1.023098430251759</v>
       </c>
       <c r="N5">
-        <v>1.002978251145997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.002436938028862</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.02685311679632</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0448327767102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9824401345519932</v>
+        <v>0.9833601810295431</v>
+      </c>
+      <c r="D6">
+        <v>1.03836485419982</v>
       </c>
       <c r="E6">
-        <v>0.9966420047254995</v>
+        <v>1.000833686439558</v>
       </c>
       <c r="F6">
-        <v>0.9992389272713696</v>
+        <v>1.013629245287656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.04961323696768</v>
+      </c>
       <c r="J6">
-        <v>1.001757539661114</v>
+        <v>1.002653714612135</v>
+      </c>
+      <c r="K6">
+        <v>1.047771872553017</v>
       </c>
       <c r="L6">
-        <v>1.006517627797344</v>
+        <v>1.010660048273329</v>
       </c>
       <c r="M6">
-        <v>1.009083970658862</v>
+        <v>1.023308339747227</v>
       </c>
       <c r="N6">
-        <v>1.003180150270628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.002538133064102</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027019249293179</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044863157169408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9804539625227746</v>
+        <v>0.9809812606255887</v>
+      </c>
+      <c r="D7">
+        <v>1.037952736353756</v>
       </c>
       <c r="E7">
-        <v>0.9948956503519822</v>
+        <v>0.9988896775633593</v>
       </c>
       <c r="F7">
-        <v>0.9972603215390072</v>
+        <v>1.011903289320796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.049577143280328</v>
+      </c>
       <c r="J7">
-        <v>1.000364947620685</v>
+        <v>1.000878031128577</v>
+      </c>
+      <c r="K7">
+        <v>1.047610851837878</v>
       </c>
       <c r="L7">
-        <v>1.005053050963265</v>
+        <v>1.008998515719256</v>
       </c>
       <c r="M7">
-        <v>1.007388912295901</v>
+        <v>1.021857189973876</v>
       </c>
       <c r="N7">
-        <v>1.001785580589769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.001837851205671</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.025870738562228</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044753470748898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9719263969704289</v>
+        <v>0.9706963730947357</v>
+      </c>
+      <c r="D8">
+        <v>1.036191905895272</v>
       </c>
       <c r="E8">
-        <v>0.9874117050539658</v>
+        <v>0.9904979244821911</v>
       </c>
       <c r="F8">
-        <v>0.9887833688435682</v>
+        <v>1.004468695792658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.049396007884478</v>
+      </c>
       <c r="J8">
-        <v>0.9943815254703267</v>
+        <v>0.9931901596064922</v>
+      </c>
+      <c r="K8">
+        <v>1.046902974072362</v>
       </c>
       <c r="L8">
-        <v>0.9987649366676553</v>
+        <v>1.001808164617781</v>
       </c>
       <c r="M8">
-        <v>1.0001174511716</v>
+        <v>1.015588474095629</v>
       </c>
       <c r="N8">
-        <v>0.9957936612936495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9987953840600144</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020909348675682</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044257468988284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.955944609023385</v>
+        <v>0.9510995078941478</v>
+      </c>
+      <c r="D9">
+        <v>1.032974464665604</v>
       </c>
       <c r="E9">
-        <v>0.9734460404117531</v>
+        <v>0.9745694339030339</v>
       </c>
       <c r="F9">
-        <v>0.9729712455718529</v>
+        <v>0.9904221049077299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.048972022628652</v>
+      </c>
       <c r="J9">
-        <v>0.9831550979781944</v>
+        <v>0.9785056472581225</v>
+      </c>
+      <c r="K9">
+        <v>1.045554285442305</v>
       </c>
       <c r="L9">
-        <v>0.986985148311926</v>
+        <v>0.9880890348509328</v>
       </c>
       <c r="M9">
-        <v>0.9865186154893669</v>
+        <v>1.003672511999683</v>
       </c>
       <c r="N9">
-        <v>0.9845512909867894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.992948387891501</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.011478330737796</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043300737566056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9445352670326965</v>
+        <v>0.9372042201503945</v>
+      </c>
+      <c r="D10">
+        <v>1.030771624519167</v>
       </c>
       <c r="E10">
-        <v>0.9635236873254998</v>
+        <v>0.9633924286739746</v>
       </c>
       <c r="F10">
-        <v>0.9617390381836062</v>
+        <v>0.9806552682983649</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.048623684632349</v>
+      </c>
       <c r="J10">
-        <v>0.9751364464460607</v>
+        <v>0.9681515659949405</v>
+      </c>
+      <c r="K10">
+        <v>1.044606659347697</v>
       </c>
       <c r="L10">
-        <v>0.9785843171802241</v>
+        <v>0.9784556707179239</v>
       </c>
       <c r="M10">
-        <v>0.9768352648021934</v>
+        <v>0.995382808385735</v>
       </c>
       <c r="N10">
-        <v>0.9765212520497278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9888371159573855</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.004970892285286</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04264738644989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9393867048017515</v>
+        <v>0.9339906562565761</v>
+      </c>
+      <c r="D11">
+        <v>1.029819229223579</v>
       </c>
       <c r="E11">
-        <v>0.9590591648064876</v>
+        <v>0.9613633390847167</v>
       </c>
       <c r="F11">
-        <v>0.9566850137326456</v>
+        <v>0.9792266408151785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.048460176555388</v>
+      </c>
       <c r="J11">
-        <v>0.9715181138350971</v>
+        <v>0.966392900745138</v>
+      </c>
+      <c r="K11">
+        <v>1.044199887574685</v>
       </c>
       <c r="L11">
-        <v>0.9747967926556013</v>
+        <v>0.9770526183399596</v>
       </c>
       <c r="M11">
-        <v>0.9724727810697743</v>
+        <v>0.9945512411608349</v>
       </c>
       <c r="N11">
-        <v>0.9728977809914281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9884034564634639</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.004766648580401</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042392311289767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9374401672417781</v>
+        <v>0.9340820692744427</v>
+      </c>
+      <c r="D12">
+        <v>1.029453713433801</v>
       </c>
       <c r="E12">
-        <v>0.9573733632940508</v>
+        <v>0.9618612832803043</v>
       </c>
       <c r="F12">
-        <v>0.9547765371059674</v>
+        <v>0.9798920005909468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.048395032061213</v>
+      </c>
       <c r="J12">
-        <v>0.9701502469976467</v>
+        <v>0.966964159342954</v>
+      </c>
+      <c r="K12">
+        <v>1.044037575519721</v>
       </c>
       <c r="L12">
-        <v>0.9733654706982215</v>
+        <v>0.9777575467818943</v>
       </c>
       <c r="M12">
-        <v>0.9708246484830209</v>
+        <v>0.9954148508476248</v>
       </c>
       <c r="N12">
-        <v>0.9715279716261721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9888616220215869</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.005787717246451</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042277553525375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9378593002460645</v>
+        <v>0.9367003599061485</v>
+      </c>
+      <c r="D13">
+        <v>1.029530397618538</v>
       </c>
       <c r="E13">
-        <v>0.9577362556097087</v>
+        <v>0.9643134591382707</v>
       </c>
       <c r="F13">
-        <v>0.9551873679413317</v>
+        <v>0.9822053987917572</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.048408748996192</v>
+      </c>
       <c r="J13">
-        <v>0.9704447715298816</v>
+        <v>0.9693446964448862</v>
+      </c>
+      <c r="K13">
+        <v>1.044070686826146</v>
       </c>
       <c r="L13">
-        <v>0.9736736350699278</v>
+        <v>0.9801113948972715</v>
       </c>
       <c r="M13">
-        <v>0.9711794714952876</v>
+        <v>0.9976364343840384</v>
       </c>
       <c r="N13">
-        <v>0.9718229144170251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9900234326790912</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.007829146576729</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042298495319382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9392265173911882</v>
+        <v>0.9396326684134192</v>
+      </c>
+      <c r="D14">
+        <v>1.029788280008105</v>
       </c>
       <c r="E14">
-        <v>0.9589203903196737</v>
+        <v>0.9668751179326659</v>
       </c>
       <c r="F14">
-        <v>0.9565279106931116</v>
+        <v>0.9845373539188996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.048454682153709</v>
+      </c>
       <c r="J14">
-        <v>0.9714055439611926</v>
+        <v>0.9717914522537346</v>
+      </c>
+      <c r="K14">
+        <v>1.044185741164019</v>
       </c>
       <c r="L14">
-        <v>0.9746789903252101</v>
+        <v>0.9824678075172816</v>
       </c>
       <c r="M14">
-        <v>0.9723371251549079</v>
+        <v>0.9997742460530997</v>
       </c>
       <c r="N14">
-        <v>0.9727850512553907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9911385429256837</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.009696541646436</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042381251826715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9400642910774749</v>
+        <v>0.9408963747879935</v>
+      </c>
+      <c r="D15">
+        <v>1.029950514496379</v>
       </c>
       <c r="E15">
-        <v>0.9596462624169921</v>
+        <v>0.9679302813356984</v>
       </c>
       <c r="F15">
-        <v>0.9573496482925079</v>
+        <v>0.9854795133657243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.048483410644902</v>
+      </c>
       <c r="J15">
-        <v>0.9719942858358547</v>
+        <v>0.9727853459275669</v>
+      </c>
+      <c r="K15">
+        <v>1.044259961764016</v>
       </c>
       <c r="L15">
-        <v>0.9752951186801019</v>
+        <v>0.9834079767705927</v>
       </c>
       <c r="M15">
-        <v>0.9730466500534507</v>
+        <v>1.000607076887295</v>
       </c>
       <c r="N15">
-        <v>0.9733746292110448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.991563417098518</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.010393128045395</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042439543227685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9448723375458793</v>
+        <v>0.9462270371876257</v>
+      </c>
+      <c r="D16">
+        <v>1.030866578896009</v>
       </c>
       <c r="E16">
-        <v>0.9638162575846037</v>
+        <v>0.9721385039198558</v>
       </c>
       <c r="F16">
-        <v>0.9620702321611815</v>
+        <v>0.9891568181240683</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.048641046745407</v>
+      </c>
       <c r="J16">
-        <v>0.9753733465372246</v>
+        <v>0.9766651917159274</v>
+      </c>
+      <c r="K16">
+        <v>1.044664919573699</v>
       </c>
       <c r="L16">
-        <v>0.9788323635066932</v>
+        <v>0.9869914926715196</v>
       </c>
       <c r="M16">
-        <v>0.9771210313184809</v>
+        <v>1.003687386256246</v>
       </c>
       <c r="N16">
-        <v>0.9767584885661945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.993052457564789</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.012788201267414</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0427290020923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9478306417321076</v>
+        <v>0.9487858570558406</v>
+      </c>
+      <c r="D17">
+        <v>1.0314369962365</v>
       </c>
       <c r="E17">
-        <v>0.9663854941539598</v>
+        <v>0.974032019914437</v>
       </c>
       <c r="F17">
-        <v>0.9649786248522016</v>
+        <v>0.9907568787965939</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.048735667631504</v>
+      </c>
       <c r="J17">
-        <v>0.9774525326330233</v>
+        <v>0.9783650603712389</v>
+      </c>
+      <c r="K17">
+        <v>1.044915393702988</v>
       </c>
       <c r="L17">
-        <v>0.9810097464633785</v>
+        <v>0.9885112151272525</v>
       </c>
       <c r="M17">
-        <v>0.9796298938512283</v>
+        <v>1.004928937900232</v>
       </c>
       <c r="N17">
-        <v>0.9788406273447348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9936126990644066</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.013637717317851</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0429086635717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9495362877451488</v>
+        <v>0.9491842574457348</v>
+      </c>
+      <c r="D18">
+        <v>1.031758202652127</v>
       </c>
       <c r="E18">
-        <v>0.9678680329210874</v>
+        <v>0.9740709307932974</v>
       </c>
       <c r="F18">
-        <v>0.9666568595532714</v>
+        <v>0.9906531179596335</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.048787130829848</v>
+      </c>
       <c r="J18">
-        <v>0.9786513192533032</v>
+        <v>0.9783147020284726</v>
+      </c>
+      <c r="K18">
+        <v>1.045050375521231</v>
       </c>
       <c r="L18">
-        <v>0.9822654559612196</v>
+        <v>0.9883527645849877</v>
       </c>
       <c r="M18">
-        <v>0.9810770786392712</v>
+        <v>1.004635165093306</v>
       </c>
       <c r="N18">
-        <v>0.9800411163795181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9934131630893326</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.013161916556738</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042992565384677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9501145774253011</v>
+        <v>0.9476876095973648</v>
+      </c>
+      <c r="D19">
+        <v>1.031875197977585</v>
       </c>
       <c r="E19">
-        <v>0.9683708808154989</v>
+        <v>0.9724809543180394</v>
       </c>
       <c r="F19">
-        <v>0.9672260837796625</v>
+        <v>0.9890351302370438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.048806112497042</v>
+      </c>
       <c r="J19">
-        <v>0.9790577592334671</v>
+        <v>0.9767365683298196</v>
+      </c>
+      <c r="K19">
+        <v>1.04510378870806</v>
       </c>
       <c r="L19">
-        <v>0.9826912467026597</v>
+        <v>0.9867250344120644</v>
       </c>
       <c r="M19">
-        <v>0.9815678485946838</v>
+        <v>1.002980278414588</v>
       </c>
       <c r="N19">
-        <v>0.9804481335510733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9925693231196112</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.011518317681331</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043036666995797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9475153197331742</v>
+        <v>0.9408691504351776</v>
+      </c>
+      <c r="D20">
+        <v>1.031375180286341</v>
       </c>
       <c r="E20">
-        <v>0.9661115151297452</v>
+        <v>0.9663386849657432</v>
       </c>
       <c r="F20">
-        <v>0.9646684801205178</v>
+        <v>0.9832288129675237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.04872550805592</v>
+      </c>
       <c r="J20">
-        <v>0.9772309133163162</v>
+        <v>0.9708864396471732</v>
+      </c>
+      <c r="K20">
+        <v>1.044887892900418</v>
       </c>
       <c r="L20">
-        <v>0.9807776285025041</v>
+        <v>0.9810004297299555</v>
       </c>
       <c r="M20">
-        <v>0.9793624068464686</v>
+        <v>0.9975731164001067</v>
       </c>
       <c r="N20">
-        <v>0.9786186933031777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9899251795459449</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.006693374695876</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042887895673751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9388248728501459</v>
+        <v>0.9296012143717498</v>
+      </c>
+      <c r="D21">
+        <v>1.029722686715711</v>
       </c>
       <c r="E21">
-        <v>0.9585724699427982</v>
+        <v>0.9571960184349492</v>
       </c>
       <c r="F21">
-        <v>0.9561340374635187</v>
+        <v>0.9751880711745512</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.04844328541862</v>
+      </c>
       <c r="J21">
-        <v>0.9711232953331478</v>
+        <v>0.9623685414201435</v>
+      </c>
+      <c r="K21">
+        <v>1.044162016094864</v>
       </c>
       <c r="L21">
-        <v>0.9743836304504006</v>
+        <v>0.973036382560419</v>
       </c>
       <c r="M21">
-        <v>0.9719970093496464</v>
+        <v>0.9906552698667598</v>
       </c>
       <c r="N21">
-        <v>0.9725024018019197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.986492151723359</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.001175535459284</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042377859614901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9331616882943194</v>
+        <v>0.922361881747005</v>
+      </c>
+      <c r="D22">
+        <v>1.028657052344519</v>
       </c>
       <c r="E22">
-        <v>0.953672081064207</v>
+        <v>0.9513712777877322</v>
       </c>
       <c r="F22">
-        <v>0.9505861411277549</v>
+        <v>0.970099175813629</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.048249397389832</v>
+      </c>
       <c r="J22">
-        <v>0.967144053203864</v>
+        <v>0.9569328863021895</v>
+      </c>
+      <c r="K22">
+        <v>1.043681410035747</v>
       </c>
       <c r="L22">
-        <v>0.9702207718580957</v>
+        <v>0.9679718116661554</v>
       </c>
       <c r="M22">
-        <v>0.9672044427999791</v>
+        <v>0.9862871930909053</v>
       </c>
       <c r="N22">
-        <v>0.9685175086923872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9843141716953981</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9977182828737206</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042024679342392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C23">
-        <v>0.9361837723563774</v>
+        <v>0.9262334551763787</v>
+      </c>
+      <c r="D23">
+        <v>1.029211037751434</v>
       </c>
       <c r="E23">
-        <v>0.9562858796420247</v>
+        <v>0.9544846650699693</v>
       </c>
       <c r="F23">
-        <v>0.9535453790344373</v>
+        <v>0.9728181274675615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.048351065841403</v>
+      </c>
       <c r="J23">
-        <v>0.9692674070650069</v>
+        <v>0.9598398216996477</v>
+      </c>
+      <c r="K23">
+        <v>1.043925265571842</v>
       </c>
       <c r="L23">
-        <v>0.9724418206861091</v>
+        <v>0.9706799224430684</v>
       </c>
       <c r="M23">
-        <v>0.9697612171678542</v>
+        <v>0.988622191128897</v>
       </c>
       <c r="N23">
-        <v>0.9706438779595645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9854790279974152</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9995663933632218</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042187559084175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.947657861404458</v>
+        <v>0.9407626905935381</v>
+      </c>
+      <c r="D24">
+        <v>1.031382160329544</v>
       </c>
       <c r="E24">
-        <v>0.9662353639027154</v>
+        <v>0.9662021651694922</v>
       </c>
       <c r="F24">
-        <v>0.9648086771702012</v>
+        <v>0.9830745274088524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.048725542854911</v>
+      </c>
       <c r="J24">
-        <v>0.9773310965695952</v>
+        <v>0.9707484614447074</v>
+      </c>
+      <c r="K24">
+        <v>1.044879706486629</v>
       </c>
       <c r="L24">
-        <v>0.9808825567302993</v>
+        <v>0.9808499956072435</v>
       </c>
       <c r="M24">
-        <v>0.9794833225831205</v>
+        <v>0.9974055391072962</v>
       </c>
       <c r="N24">
-        <v>0.9787190188281676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9898474000299123</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.006518211968578</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042854958004996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9602003410652747</v>
+        <v>0.9563602747842218</v>
+      </c>
+      <c r="D25">
+        <v>1.033840219357871</v>
       </c>
       <c r="E25">
-        <v>0.9771572819130708</v>
+        <v>0.9788372143135607</v>
       </c>
       <c r="F25">
-        <v>0.9771726338542438</v>
+        <v>0.9941777907896983</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.049098967336484</v>
+      </c>
       <c r="J25">
-        <v>0.9861455907071075</v>
+        <v>0.9824511508874483</v>
+      </c>
+      <c r="K25">
+        <v>1.04593497792716</v>
       </c>
       <c r="L25">
-        <v>0.9901208636039753</v>
+        <v>0.9917731863914895</v>
       </c>
       <c r="M25">
-        <v>0.990135962683764</v>
+        <v>1.00686716647867</v>
       </c>
       <c r="N25">
-        <v>0.9875460305583917</v>
+        <v>0.994522930906768</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.014006788090102</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043598245509947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9679554025917708</v>
+        <v>0.9714968272185186</v>
       </c>
       <c r="D2">
-        <v>1.035712547953849</v>
+        <v>1.032825697322989</v>
       </c>
       <c r="E2">
-        <v>0.9882651064511782</v>
+        <v>0.9911128507178497</v>
       </c>
       <c r="F2">
-        <v>1.00249470966071</v>
+        <v>1.004792145266205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049337402236512</v>
+        <v>1.04821970039377</v>
       </c>
       <c r="J2">
-        <v>0.9911387102403078</v>
+        <v>0.9945648196239448</v>
       </c>
       <c r="K2">
-        <v>1.04669579886789</v>
+        <v>1.043845903045111</v>
       </c>
       <c r="L2">
-        <v>0.9998903846546686</v>
+        <v>1.002697402070801</v>
       </c>
       <c r="M2">
-        <v>1.01391939828627</v>
+        <v>1.016185119190675</v>
       </c>
       <c r="N2">
-        <v>0.9979810015246317</v>
+        <v>1.003361239448718</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.019588348550751</v>
+        <v>1.021381566405802</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044088245069363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042081863518561</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02364068081744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.97595359002333</v>
+        <v>0.9790638292238938</v>
       </c>
       <c r="D3">
-        <v>1.037067054470457</v>
+        <v>1.034091256967293</v>
       </c>
       <c r="E3">
-        <v>0.9947848030074813</v>
+        <v>0.9972876500122306</v>
       </c>
       <c r="F3">
-        <v>1.00826346189129</v>
+        <v>1.010281712716647</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049487680647808</v>
+        <v>1.048324723569994</v>
       </c>
       <c r="J3">
-        <v>0.9971219636057086</v>
+        <v>1.00014197618284</v>
       </c>
       <c r="K3">
-        <v>1.047246644725429</v>
+        <v>1.044305752204073</v>
       </c>
       <c r="L3">
-        <v>1.005484851055006</v>
+        <v>1.007955353908411</v>
       </c>
       <c r="M3">
-        <v>1.018791690847492</v>
+        <v>1.020784705915965</v>
       </c>
       <c r="N3">
-        <v>1.000353397483171</v>
+        <v>1.005142326592291</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.023444546631811</v>
+        <v>1.025021921112664</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04447508416292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042404089054006</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023685067749011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9809535489046265</v>
+        <v>0.9838027131025053</v>
       </c>
       <c r="D4">
-        <v>1.037931855449038</v>
+        <v>1.034899908592828</v>
       </c>
       <c r="E4">
-        <v>0.9988670385334504</v>
+        <v>1.001160781229676</v>
       </c>
       <c r="F4">
-        <v>1.011883198039927</v>
+        <v>1.013732283403292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049572111496015</v>
+        <v>1.048380620817972</v>
       </c>
       <c r="J4">
-        <v>1.000857340262731</v>
+        <v>1.003630022458153</v>
       </c>
       <c r="K4">
-        <v>1.047593055951436</v>
+        <v>1.044594607113661</v>
       </c>
       <c r="L4">
-        <v>1.00897915666232</v>
+        <v>1.011245216804942</v>
       </c>
       <c r="M4">
-        <v>1.021840288123045</v>
+        <v>1.023667749591766</v>
       </c>
       <c r="N4">
-        <v>1.001829685375645</v>
+        <v>1.006252373397492</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.025857361601493</v>
+        <v>1.027303703482009</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044720909765007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042609306323373</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023709269424258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9830161095350869</v>
+        <v>0.9857594240819102</v>
       </c>
       <c r="D5">
-        <v>1.038297596703329</v>
+        <v>1.035242247950712</v>
       </c>
       <c r="E5">
-        <v>1.000552450083017</v>
+        <v>1.002761356996307</v>
       </c>
       <c r="F5">
-        <v>1.013379465408135</v>
+        <v>1.015159941002588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049605985669269</v>
+        <v>1.048402821756132</v>
       </c>
       <c r="J5">
-        <v>1.002396957350113</v>
+        <v>1.005069048568522</v>
       </c>
       <c r="K5">
-        <v>1.047741193554237</v>
+        <v>1.044718734616381</v>
       </c>
       <c r="L5">
-        <v>1.010419779150407</v>
+        <v>1.012602802030938</v>
       </c>
       <c r="M5">
-        <v>1.023098430251759</v>
+        <v>1.024858677297942</v>
       </c>
       <c r="N5">
-        <v>1.002436938028862</v>
+        <v>1.006709343183663</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.02685311679632</v>
+        <v>1.028246259946011</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0448327767102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042704919235391</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023719189608764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9833601810295431</v>
+        <v>0.9860859417006395</v>
       </c>
       <c r="D6">
-        <v>1.03836485419982</v>
+        <v>1.035305438948257</v>
       </c>
       <c r="E6">
-        <v>1.000833686439558</v>
+        <v>1.003028521248566</v>
       </c>
       <c r="F6">
-        <v>1.013629245287656</v>
+        <v>1.015398341546333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04961323696768</v>
+        <v>1.048408301146565</v>
       </c>
       <c r="J6">
-        <v>1.002653714612135</v>
+        <v>1.005309106452161</v>
       </c>
       <c r="K6">
-        <v>1.047771872553017</v>
+        <v>1.044745245214818</v>
       </c>
       <c r="L6">
-        <v>1.010660048273329</v>
+        <v>1.012829292141918</v>
       </c>
       <c r="M6">
-        <v>1.023308339747227</v>
+        <v>1.025057434947519</v>
       </c>
       <c r="N6">
-        <v>1.002538133064102</v>
+        <v>1.006785514754634</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027019249293179</v>
+        <v>1.028403566016525</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044863157169408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04273323348483</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023721787450538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9809812606255887</v>
+        <v>0.9838542781037843</v>
       </c>
       <c r="D7">
-        <v>1.037952736353756</v>
+        <v>1.034920066726252</v>
       </c>
       <c r="E7">
-        <v>0.9988896775633593</v>
+        <v>1.001205543945311</v>
       </c>
       <c r="F7">
-        <v>1.011903289320796</v>
+        <v>1.013769561021761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049577143280328</v>
+        <v>1.048385984911159</v>
       </c>
       <c r="J7">
-        <v>1.000878031128577</v>
+        <v>1.0036739631366</v>
       </c>
       <c r="K7">
-        <v>1.047610851837878</v>
+        <v>1.044611675431147</v>
       </c>
       <c r="L7">
-        <v>1.008998515719256</v>
+        <v>1.011286444275768</v>
       </c>
       <c r="M7">
-        <v>1.021857189973876</v>
+        <v>1.023701645636086</v>
       </c>
       <c r="N7">
-        <v>1.001837851205671</v>
+        <v>1.006296028870617</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.025870738562228</v>
+        <v>1.027330530431109</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044753470748898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042643379320292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023711998710062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9706963730947357</v>
+        <v>0.9741681798961872</v>
       </c>
       <c r="D8">
-        <v>1.036191905895272</v>
+        <v>1.033274243080503</v>
       </c>
       <c r="E8">
-        <v>0.9904979244821911</v>
+        <v>0.9933002595984117</v>
       </c>
       <c r="F8">
-        <v>1.004468695792658</v>
+        <v>1.006726954455945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049396007884478</v>
+        <v>1.048263517281461</v>
       </c>
       <c r="J8">
-        <v>0.9931901596064922</v>
+        <v>0.9965531989723827</v>
       </c>
       <c r="K8">
-        <v>1.046902974072362</v>
+        <v>1.04402159500753</v>
       </c>
       <c r="L8">
-        <v>1.001808164617781</v>
+        <v>1.004571754497375</v>
       </c>
       <c r="M8">
-        <v>1.015588474095629</v>
+        <v>1.017816569400414</v>
       </c>
       <c r="N8">
-        <v>0.9987953840600144</v>
+        <v>1.004088720605163</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020909348675682</v>
+        <v>1.022672784101275</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044257468988284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042231127302479</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023659479572933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9510995078941478</v>
+        <v>0.9557046002602487</v>
       </c>
       <c r="D9">
-        <v>1.032974464665604</v>
+        <v>1.030270984864236</v>
       </c>
       <c r="E9">
-        <v>0.9745694339030339</v>
+        <v>0.9782790338837136</v>
       </c>
       <c r="F9">
-        <v>0.9904221049077299</v>
+        <v>0.9934147854657027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048972022628652</v>
+        <v>1.04794787519547</v>
       </c>
       <c r="J9">
-        <v>0.9785056472581225</v>
+        <v>0.9829247148496221</v>
       </c>
       <c r="K9">
-        <v>1.045554285442305</v>
+        <v>1.042891311857524</v>
       </c>
       <c r="L9">
-        <v>0.9880890348509328</v>
+        <v>0.9917346315296515</v>
       </c>
       <c r="M9">
-        <v>1.003672511999683</v>
+        <v>1.006615614435651</v>
       </c>
       <c r="N9">
-        <v>0.992948387891501</v>
+        <v>0.999730753634261</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.011478330737796</v>
+        <v>1.013807693797046</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043300737566056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041428514036781</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023528600689818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9372042201503945</v>
+        <v>0.9428015427425928</v>
       </c>
       <c r="D10">
-        <v>1.030771624519167</v>
+        <v>1.02821850522849</v>
       </c>
       <c r="E10">
-        <v>0.9633924286739746</v>
+        <v>0.9679105606671045</v>
       </c>
       <c r="F10">
-        <v>0.9806552682983649</v>
+        <v>0.9842986385442901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048623684632349</v>
+        <v>1.04767604052729</v>
       </c>
       <c r="J10">
-        <v>0.9681515659949405</v>
+        <v>0.9734838882821127</v>
       </c>
       <c r="K10">
-        <v>1.044606659347697</v>
+        <v>1.042096295725152</v>
       </c>
       <c r="L10">
-        <v>0.9784556707179239</v>
+        <v>0.9828844219768188</v>
       </c>
       <c r="M10">
-        <v>0.995382808385735</v>
+        <v>0.9989572933359472</v>
       </c>
       <c r="N10">
-        <v>0.9888371159573855</v>
+        <v>0.9968563161074144</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.004970892285286</v>
+        <v>1.0077998092257</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04264738644989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040884749994385</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023418093429048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9339906562565761</v>
+        <v>0.9399665372747998</v>
       </c>
       <c r="D11">
-        <v>1.029819229223579</v>
+        <v>1.02733281514597</v>
       </c>
       <c r="E11">
-        <v>0.9613633390847167</v>
+        <v>0.9662118201733879</v>
       </c>
       <c r="F11">
-        <v>0.9792266408151785</v>
+        <v>0.9831261008131353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048460176555388</v>
+        <v>1.047547524948373</v>
       </c>
       <c r="J11">
-        <v>0.966392900745138</v>
+        <v>0.9720691110911597</v>
       </c>
       <c r="K11">
-        <v>1.044199887574685</v>
+        <v>1.04175704886578</v>
       </c>
       <c r="L11">
-        <v>0.9770526183399596</v>
+        <v>0.9818003576468792</v>
       </c>
       <c r="M11">
-        <v>0.9945512411608349</v>
+        <v>0.9983734076695802</v>
       </c>
       <c r="N11">
-        <v>0.9884034564634639</v>
+        <v>0.9968954599645521</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.004766648580401</v>
+        <v>1.007789944548867</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042392311289767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04068067122226</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023366053971972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9340820692744427</v>
+        <v>0.9400875755485057</v>
       </c>
       <c r="D12">
-        <v>1.029453713433801</v>
+        <v>1.02699254206065</v>
       </c>
       <c r="E12">
-        <v>0.9618612832803043</v>
+        <v>0.9667416412267209</v>
       </c>
       <c r="F12">
-        <v>0.9798920005909468</v>
+        <v>0.9838119789414483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048395032061213</v>
+        <v>1.047495074707291</v>
       </c>
       <c r="J12">
-        <v>0.966964159342954</v>
+        <v>0.9726633020648414</v>
       </c>
       <c r="K12">
-        <v>1.044037575519721</v>
+        <v>1.04162025628055</v>
       </c>
       <c r="L12">
-        <v>0.9777575467818943</v>
+        <v>0.9825350152705062</v>
       </c>
       <c r="M12">
-        <v>0.9954148508476248</v>
+        <v>0.9992560292303925</v>
       </c>
       <c r="N12">
-        <v>0.9888616220215869</v>
+        <v>0.9973919662753736</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.005787717246451</v>
+        <v>1.008824951172132</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042277553525375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040583957804468</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02334487608274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9367003599061485</v>
+        <v>0.9424314220032511</v>
       </c>
       <c r="D13">
-        <v>1.029530397618538</v>
+        <v>1.027063830732072</v>
       </c>
       <c r="E13">
-        <v>0.9643134591382707</v>
+        <v>0.9689632587278947</v>
       </c>
       <c r="F13">
-        <v>0.9822053987917572</v>
+        <v>0.9859393572222369</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048408748996192</v>
+        <v>1.047505968168571</v>
       </c>
       <c r="J13">
-        <v>0.9693446964448862</v>
+        <v>0.974786706327766</v>
       </c>
       <c r="K13">
-        <v>1.044070686826146</v>
+        <v>1.041647913531637</v>
       </c>
       <c r="L13">
-        <v>0.9801113948972715</v>
+        <v>0.9846641223136152</v>
       </c>
       <c r="M13">
-        <v>0.9976364343840384</v>
+        <v>1.001296029136081</v>
       </c>
       <c r="N13">
-        <v>0.9900234326790912</v>
+        <v>0.9982100348846483</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.007829146576729</v>
+        <v>1.010722036207021</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042298495319382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040600797411573</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023349284948764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9396326684134192</v>
+        <v>0.9450451612062463</v>
       </c>
       <c r="D14">
-        <v>1.029788280008105</v>
+        <v>1.027303960616576</v>
       </c>
       <c r="E14">
-        <v>0.9668751179326659</v>
+        <v>0.9712553304989098</v>
       </c>
       <c r="F14">
-        <v>0.9845373539188996</v>
+        <v>0.9880559632661744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048454682153709</v>
+        <v>1.047543037024123</v>
       </c>
       <c r="J14">
-        <v>0.9717914522537346</v>
+        <v>0.9769365810224243</v>
       </c>
       <c r="K14">
-        <v>1.044185741164019</v>
+        <v>1.041745020394761</v>
       </c>
       <c r="L14">
-        <v>0.9824678075172816</v>
+        <v>0.9867581920204471</v>
       </c>
       <c r="M14">
-        <v>0.9997742460530997</v>
+        <v>1.003223967174139</v>
       </c>
       <c r="N14">
-        <v>0.9911385429256837</v>
+        <v>0.9989212151762925</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.009696541646436</v>
+        <v>1.012423148078692</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042381251826715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040671004028238</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023364245433663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9408963747879935</v>
+        <v>0.9461717066948699</v>
       </c>
       <c r="D15">
-        <v>1.029950514496379</v>
+        <v>1.027455229318709</v>
       </c>
       <c r="E15">
-        <v>0.9679302813356984</v>
+        <v>0.9721941633474688</v>
       </c>
       <c r="F15">
-        <v>0.9854795133657243</v>
+        <v>0.9889055756858063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048483410644902</v>
+        <v>1.047566507901962</v>
       </c>
       <c r="J15">
-        <v>0.9727853459275669</v>
+        <v>0.9778030122044471</v>
       </c>
       <c r="K15">
-        <v>1.044259961764016</v>
+        <v>1.041808152363928</v>
       </c>
       <c r="L15">
-        <v>0.9834079767705927</v>
+        <v>0.9875852574386578</v>
       </c>
       <c r="M15">
-        <v>1.000607076887295</v>
+        <v>1.003966683687295</v>
       </c>
       <c r="N15">
-        <v>0.991563417098518</v>
+        <v>0.9991709393043166</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.010393128045395</v>
+        <v>1.013048439098168</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042439543227685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04072203356879</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023373706344199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9462270371876257</v>
+        <v>0.950958960378593</v>
       </c>
       <c r="D16">
-        <v>1.030866578896009</v>
+        <v>1.028308467601777</v>
       </c>
       <c r="E16">
-        <v>0.9721385039198558</v>
+        <v>0.9759420440951749</v>
       </c>
       <c r="F16">
-        <v>0.9891568181240683</v>
+        <v>0.9922176767122708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048641046745407</v>
+        <v>1.047692642624565</v>
       </c>
       <c r="J16">
-        <v>0.9766651917159274</v>
+        <v>0.9811795812571645</v>
       </c>
       <c r="K16">
-        <v>1.044664919573699</v>
+        <v>1.04214951277709</v>
       </c>
       <c r="L16">
-        <v>0.9869914926715196</v>
+        <v>0.9907216954550474</v>
       </c>
       <c r="M16">
-        <v>1.003687386256246</v>
+        <v>1.0066917839514</v>
       </c>
       <c r="N16">
-        <v>0.993052457564789</v>
+        <v>0.9999612448838671</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.012788201267414</v>
+        <v>1.015162842476013</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0427290020923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04096683720248</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02342479801811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9487858570558406</v>
+        <v>0.9532968048258734</v>
       </c>
       <c r="D17">
-        <v>1.0314369962365</v>
+        <v>1.028839982093617</v>
       </c>
       <c r="E17">
-        <v>0.974032019914437</v>
+        <v>0.9776496363692554</v>
       </c>
       <c r="F17">
-        <v>0.9907568787965939</v>
+        <v>0.9936705821631416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048735667631504</v>
+        <v>1.047767757227158</v>
       </c>
       <c r="J17">
-        <v>0.9783650603712389</v>
+        <v>0.9826760706180401</v>
       </c>
       <c r="K17">
-        <v>1.044915393702988</v>
+        <v>1.042360556589546</v>
       </c>
       <c r="L17">
-        <v>0.9885112151272525</v>
+        <v>0.9920612356246423</v>
       </c>
       <c r="M17">
-        <v>1.004928937900232</v>
+        <v>1.00779050666499</v>
       </c>
       <c r="N17">
-        <v>0.9936126990644066</v>
+        <v>1.00023685202662</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.013637717317851</v>
+        <v>1.015899703039496</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0429086635717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041118874377442</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023455332452173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491842574457348</v>
+        <v>0.9536839272640961</v>
       </c>
       <c r="D18">
-        <v>1.031758202652127</v>
+        <v>1.029138875244548</v>
       </c>
       <c r="E18">
-        <v>0.9740709307932974</v>
+        <v>0.977677782695646</v>
       </c>
       <c r="F18">
-        <v>0.9906531179596335</v>
+        <v>0.9935600115717487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048787130829848</v>
+        <v>1.047807466563276</v>
       </c>
       <c r="J18">
-        <v>0.9783147020284726</v>
+        <v>0.9826185836950372</v>
       </c>
       <c r="K18">
-        <v>1.045050375521231</v>
+        <v>1.042472900267994</v>
       </c>
       <c r="L18">
-        <v>0.9883527645849877</v>
+        <v>0.9918932819355895</v>
       </c>
       <c r="M18">
-        <v>1.004635165093306</v>
+        <v>1.00749084130081</v>
       </c>
       <c r="N18">
-        <v>0.9934131630893326</v>
+        <v>1.000026830388126</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.013161916556738</v>
+        <v>1.015419736075267</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042992565384677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041185621167012</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023471499319526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9476876095973648</v>
+        <v>0.9523361486948805</v>
       </c>
       <c r="D19">
-        <v>1.031875197977585</v>
+        <v>1.029248140731738</v>
       </c>
       <c r="E19">
-        <v>0.9724809543180394</v>
+        <v>0.9762094661619337</v>
       </c>
       <c r="F19">
-        <v>0.9890351302370438</v>
+        <v>0.9920420435573388</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048806112497042</v>
+        <v>1.047822816792042</v>
       </c>
       <c r="J19">
-        <v>0.9767365683298196</v>
+        <v>0.9811831799043637</v>
       </c>
       <c r="K19">
-        <v>1.04510378870806</v>
+        <v>1.042518471984907</v>
       </c>
       <c r="L19">
-        <v>0.9867250344120644</v>
+        <v>0.9903850659265375</v>
       </c>
       <c r="M19">
-        <v>1.002980278414588</v>
+        <v>1.005934280709595</v>
       </c>
       <c r="N19">
-        <v>0.9925693231196112</v>
+        <v>0.9993807233959984</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.011518317681331</v>
+        <v>1.013854683976057</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043036666995797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041224809677748</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023477767222361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9408691504351776</v>
+        <v>0.9461194882568503</v>
       </c>
       <c r="D20">
-        <v>1.031375180286341</v>
+        <v>1.028782336290126</v>
       </c>
       <c r="E20">
-        <v>0.9663386849657432</v>
+        <v>0.9705643513513998</v>
       </c>
       <c r="F20">
-        <v>0.9832288129675237</v>
+        <v>0.9866389658013437</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04872550805592</v>
+        <v>1.047759644334156</v>
       </c>
       <c r="J20">
-        <v>0.9708864396471732</v>
+        <v>0.9758979402088317</v>
       </c>
       <c r="K20">
-        <v>1.044887892900418</v>
+        <v>1.042337283937799</v>
       </c>
       <c r="L20">
-        <v>0.9810004297299555</v>
+        <v>0.9851453216244394</v>
       </c>
       <c r="M20">
-        <v>0.9975731164001067</v>
+        <v>1.000920893171253</v>
       </c>
       <c r="N20">
-        <v>0.9899251795459449</v>
+        <v>0.9975089965272984</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.006693374695876</v>
+        <v>1.009342900699551</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042887895673751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041100964395069</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02345203035214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9296012143717498</v>
+        <v>0.9361010748511587</v>
       </c>
       <c r="D21">
-        <v>1.029722686715711</v>
+        <v>1.027243403783896</v>
       </c>
       <c r="E21">
-        <v>0.9571960184349492</v>
+        <v>0.9624927469163806</v>
       </c>
       <c r="F21">
-        <v>0.9751880711745512</v>
+        <v>0.9794494185277869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04844328541862</v>
+        <v>1.047534773020792</v>
       </c>
       <c r="J21">
-        <v>0.9623685414201435</v>
+        <v>0.9685365755263389</v>
       </c>
       <c r="K21">
-        <v>1.044162016094864</v>
+        <v>1.04172639203148</v>
       </c>
       <c r="L21">
-        <v>0.973036382560419</v>
+        <v>0.9782213376984754</v>
       </c>
       <c r="M21">
-        <v>0.9906552698667598</v>
+        <v>0.9948308754814276</v>
       </c>
       <c r="N21">
-        <v>0.986492151723359</v>
+        <v>0.9956366689247461</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.001175535459284</v>
+        <v>1.004480432695067</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042377859614901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040672545805566</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023360840859731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.922361881747005</v>
+        <v>0.9296988630109</v>
       </c>
       <c r="D22">
-        <v>1.028657052344519</v>
+        <v>1.026251065794869</v>
       </c>
       <c r="E22">
-        <v>0.9513712777877322</v>
+        <v>0.9573885080181681</v>
       </c>
       <c r="F22">
-        <v>0.970099175813629</v>
+        <v>0.9749322296898714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048249397389832</v>
+        <v>1.047377117275186</v>
       </c>
       <c r="J22">
-        <v>0.9569328863021895</v>
+        <v>0.9638677987292987</v>
       </c>
       <c r="K22">
-        <v>1.043681410035747</v>
+        <v>1.041319824987245</v>
       </c>
       <c r="L22">
-        <v>0.9679718116661554</v>
+        <v>0.9738541586095207</v>
       </c>
       <c r="M22">
-        <v>0.9862871930909053</v>
+        <v>0.9910171953847389</v>
       </c>
       <c r="N22">
-        <v>0.9843141716953981</v>
+        <v>0.9944639500059648</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9977182828737206</v>
+        <v>1.001461991997991</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042024679342392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04037038703557</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023297352686557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262334551763787</v>
+        <v>0.9330699667813931</v>
       </c>
       <c r="D23">
-        <v>1.029211037751434</v>
+        <v>1.026766249975762</v>
       </c>
       <c r="E23">
-        <v>0.9544846650699693</v>
+        <v>0.9600660155332885</v>
       </c>
       <c r="F23">
-        <v>0.9728181274675615</v>
+        <v>0.9773064087270747</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048351065841403</v>
+        <v>1.047458865822011</v>
       </c>
       <c r="J23">
-        <v>0.9598398216996477</v>
+        <v>0.966315442604978</v>
       </c>
       <c r="K23">
-        <v>1.043925265571842</v>
+        <v>1.041524498031067</v>
       </c>
       <c r="L23">
-        <v>0.9706799224430684</v>
+        <v>0.9761400812568932</v>
       </c>
       <c r="M23">
-        <v>0.988622191128897</v>
+        <v>0.9930176530882412</v>
       </c>
       <c r="N23">
-        <v>0.9854790279974152</v>
+        <v>0.9950252304140217</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9995663933632218</v>
+        <v>1.003045310395395</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042187559084175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04050461200035</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023330334040631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9407626905935381</v>
+        <v>0.9460237261336836</v>
       </c>
       <c r="D24">
-        <v>1.031382160329544</v>
+        <v>1.028787838295032</v>
       </c>
       <c r="E24">
-        <v>0.9662021651694922</v>
+        <v>0.9704364623306343</v>
       </c>
       <c r="F24">
-        <v>0.9830745274088524</v>
+        <v>0.9864920733567234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048725542854911</v>
+        <v>1.047757767287485</v>
       </c>
       <c r="J24">
-        <v>0.9707484614447074</v>
+        <v>0.9757704410983208</v>
       </c>
       <c r="K24">
-        <v>1.044879706486629</v>
+        <v>1.042327588889256</v>
       </c>
       <c r="L24">
-        <v>0.9808499956072435</v>
+        <v>0.9850034297836409</v>
       </c>
       <c r="M24">
-        <v>0.9974055391072962</v>
+        <v>1.000760629873786</v>
       </c>
       <c r="N24">
-        <v>0.9898474000299123</v>
+        <v>0.9974451047824904</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.006518211968578</v>
+        <v>1.009173669215954</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042854958004996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041064251943886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023451252082542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9563602747842218</v>
+        <v>0.9606173666154089</v>
       </c>
       <c r="D25">
-        <v>1.033840219357871</v>
+        <v>1.031079541487465</v>
       </c>
       <c r="E25">
-        <v>0.9788372143135607</v>
+        <v>0.9822642444644908</v>
       </c>
       <c r="F25">
-        <v>0.9941777907896983</v>
+        <v>0.9969426446314977</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049098967336484</v>
+        <v>1.048047046828999</v>
       </c>
       <c r="J25">
-        <v>0.9824511508874483</v>
+        <v>0.9865469001394988</v>
       </c>
       <c r="K25">
-        <v>1.04593497792716</v>
+        <v>1.043213811772466</v>
       </c>
       <c r="L25">
-        <v>0.9917731863914895</v>
+        <v>0.9951442696012301</v>
       </c>
       <c r="M25">
-        <v>1.00686716647867</v>
+        <v>1.009588608238223</v>
       </c>
       <c r="N25">
-        <v>0.994522930906768</v>
+        <v>1.000855637941096</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.014006788090102</v>
+        <v>1.016160706394683</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043598245509947</v>
+        <v>1.041687724383018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023569570269883</v>
       </c>
     </row>
   </sheetData>
